--- a/policyBrief_out/Tables_report(4).xlsx
+++ b/policyBrief_out/Tables_report(4).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E81B6C2-BEEE-4E29-88D2-0302756E4FCC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BEA07F-7CE5-45A6-A6F4-6EAD2BEA4391}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fat-tails" sheetId="10" r:id="rId1"/>
@@ -15,16 +15,15 @@
     <sheet name="Sales_real_cycle" sheetId="13" r:id="rId5"/>
     <sheet name="Other_real_cycle" sheetId="6" r:id="rId6"/>
     <sheet name="PropertyLoc_real_cycle" sheetId="18" r:id="rId7"/>
-    <sheet name="Sales_real_cycle_old" sheetId="20" r:id="rId8"/>
-    <sheet name="TaxStr" sheetId="7" r:id="rId9"/>
-    <sheet name="SimInput1" sheetId="9" r:id="rId10"/>
-    <sheet name="SimInput1_new" sheetId="15" r:id="rId11"/>
-    <sheet name="SimInputs2" sheetId="8" r:id="rId12"/>
-    <sheet name="PIT_stock_real (2)" sheetId="14" r:id="rId13"/>
-    <sheet name="PIT_stock_nom" sheetId="1" r:id="rId14"/>
-    <sheet name="PIT_stock_nom (2)" sheetId="5" r:id="rId15"/>
-    <sheet name="Sales_old" sheetId="2" r:id="rId16"/>
-    <sheet name="Probs" sheetId="16" r:id="rId17"/>
+    <sheet name="TaxStr" sheetId="7" r:id="rId8"/>
+    <sheet name="SimInput1_new" sheetId="15" r:id="rId9"/>
+    <sheet name="SimInputs2" sheetId="8" r:id="rId10"/>
+    <sheet name="PIT_stock_real (2)" sheetId="14" r:id="rId11"/>
+    <sheet name="PIT_stock_nom" sheetId="1" r:id="rId12"/>
+    <sheet name="PIT_stock_nom (2)" sheetId="5" r:id="rId13"/>
+    <sheet name="Sales_old" sheetId="2" r:id="rId14"/>
+    <sheet name="Probs" sheetId="16" r:id="rId15"/>
+    <sheet name="Sales_real_cycle_old" sheetId="20" r:id="rId16"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="145">
   <si>
     <t>Stock return</t>
   </si>
@@ -281,41 +280,10 @@
     <t>Real growth of general sales tax</t>
   </si>
   <si>
-    <t>Real growth of select sales tax</t>
-  </si>
-  <si>
     <t>Real growth of other taxes</t>
   </si>
   <si>
     <t>Real GDP growth</t>
-  </si>
-  <si>
-    <t>Stock returns</t>
-  </si>
-  <si>
-    <t>Assumption 1: Individual income tax affected by stock returns</t>
-  </si>
-  <si>
-    <t>Assumption 2: Individual income tax not affected by stock returns</t>
-  </si>
-  <si>
-    <t>Assumptions on elasticities of tax revenue for simulatoin analysis</t>
-  </si>
-  <si>
-    <t>Elasticity 
-with respect to</t>
-  </si>
-  <si>
-    <t>e sales total for PIT states</t>
-  </si>
-  <si>
-    <t>e sales total for sales states</t>
-  </si>
-  <si>
-    <t>e for sales states</t>
-  </si>
-  <si>
-    <t>e for PIT states</t>
   </si>
   <si>
     <t>60/40 portfolio; Normal distribution</t>
@@ -378,13 +346,7 @@
     <t>Assumption 1</t>
   </si>
   <si>
-    <t>Base growth rate</t>
-  </si>
-  <si>
     <t>Assumption 2</t>
-  </si>
-  <si>
-    <t>Assumptions on elasticities of tax revenue for simulation analysis</t>
   </si>
   <si>
     <t>Real growth of selective sales tax</t>
@@ -587,6 +549,22 @@
   <si>
     <t>GDP with a break point in 2000</t>
   </si>
+  <si>
+    <t>Trend growth rate</t>
+  </si>
+  <si>
+    <t>Elasticity 
+of cyclical change</t>
+  </si>
+  <si>
+    <t>Real Stock returns</t>
+  </si>
+  <si>
+    <t>Adjustment for recession</t>
+  </si>
+  <si>
+    <t>Assumptions on trend and cyclical growth rate of tax revenues for simulation analysis</t>
+  </si>
 </sst>
 </file>
 
@@ -598,7 +576,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,13 +611,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1148,9 +1119,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1191,12 +1159,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1273,140 +1235,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1424,7 +1266,61 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1432,6 +1328,81 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2517,125 +2488,125 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
-      <c r="C3" s="129" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
+      <c r="C3" s="136" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="101"/>
-      <c r="C4" s="106">
+      <c r="B4" s="98"/>
+      <c r="C4" s="103">
         <v>-0.4</v>
       </c>
-      <c r="D4" s="106">
+      <c r="D4" s="103">
         <v>-0.3</v>
       </c>
-      <c r="E4" s="106">
+      <c r="E4" s="103">
         <v>-0.2</v>
       </c>
-      <c r="F4" s="106">
+      <c r="F4" s="103">
         <v>-0.1</v>
       </c>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="107" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="102">
+      <c r="B5" s="104" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="99">
         <v>1.5E-3</v>
       </c>
-      <c r="D5" s="102">
+      <c r="D5" s="99">
         <v>9.3333333333333341E-3</v>
       </c>
-      <c r="E5" s="102">
+      <c r="E5" s="99">
         <v>3.6183333333333331E-2</v>
       </c>
-      <c r="F5" s="102">
+      <c r="F5" s="99">
         <v>0.1125</v>
       </c>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="108" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="104">
+      <c r="B6" s="105" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="101">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="D6" s="104">
+      <c r="D6" s="101">
         <v>1.2283333333333334E-2</v>
       </c>
-      <c r="E6" s="104">
+      <c r="E6" s="101">
         <v>3.6900000000000002E-2</v>
       </c>
-      <c r="F6" s="104">
+      <c r="F6" s="101">
         <v>0.10453333333333334</v>
       </c>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="107" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
+      <c r="B7" s="104" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
+        <v>78</v>
+      </c>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="130" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="137" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="32"/>
-      <c r="C10" s="106">
+      <c r="C10" s="103">
         <v>-0.4</v>
       </c>
-      <c r="D10" s="106">
+      <c r="D10" s="103">
         <v>-0.3</v>
       </c>
-      <c r="E10" s="106">
+      <c r="E10" s="103">
         <v>-0.2</v>
       </c>
-      <c r="F10" s="106">
+      <c r="F10" s="103">
         <v>-0.1</v>
       </c>
       <c r="G10" s="7"/>
@@ -2643,18 +2614,18 @@
     <row r="11" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="105">
+        <v>79</v>
+      </c>
+      <c r="C11" s="102">
         <v>6.6666666666666664E-4</v>
       </c>
-      <c r="D11" s="105">
+      <c r="D11" s="102">
         <v>4.6333333333333331E-3</v>
       </c>
-      <c r="E11" s="105">
+      <c r="E11" s="102">
         <v>2.6599999999999999E-2</v>
       </c>
-      <c r="F11" s="105">
+      <c r="F11" s="102">
         <v>9.8016666666666669E-2</v>
       </c>
       <c r="G11" s="7"/>
@@ -2662,18 +2633,18 @@
     <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="105">
+        <v>81</v>
+      </c>
+      <c r="C12" s="102">
         <v>0</v>
       </c>
-      <c r="D12" s="105">
+      <c r="D12" s="102">
         <v>1.5866666666666668E-2</v>
       </c>
-      <c r="E12" s="105">
+      <c r="E12" s="102">
         <v>3.1966666666666664E-2</v>
       </c>
-      <c r="F12" s="105">
+      <c r="F12" s="102">
         <v>0.13046666666666668</v>
       </c>
       <c r="G12" s="7"/>
@@ -2681,23 +2652,23 @@
     <row r="13" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
+        <v>77</v>
+      </c>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
+        <v>82</v>
+      </c>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2730,486 +2701,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB904B2-7DCD-4875-9A24-218DF2B43987}">
-  <dimension ref="A1:K12"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="6" width="19.7109375" customWidth="1"/>
-    <col min="8" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="130" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" s="77" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="97"/>
-      <c r="B3" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="97"/>
-    </row>
-    <row r="4" spans="1:11" s="77" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="137" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="99" t="s">
-        <v>83</v>
-      </c>
-      <c r="I4" s="99" t="s">
-        <v>84</v>
-      </c>
-      <c r="J4" s="99" t="s">
-        <v>86</v>
-      </c>
-      <c r="K4" s="99" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="84">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="D5" s="84">
-        <v>1.2</v>
-      </c>
-      <c r="E5" s="84">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="84">
-        <v>1.2</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5">
-        <f>D5*2/3+E5*1/3</f>
-        <v>0.96666666666666656</v>
-      </c>
-      <c r="I5">
-        <f>D5*60/85+E5*25/85</f>
-        <v>0.99411764705882355</v>
-      </c>
-      <c r="J5">
-        <f>0.55*$C5+0.2*$D5+0.1*$E5+0.15*$F5</f>
-        <v>1.0914999999999999</v>
-      </c>
-      <c r="K5">
-        <f>0*$C5+0.6*$D5+0.25*$E5+0.15*$F5</f>
-        <v>1.0249999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="98" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="84">
-        <v>0.17</v>
-      </c>
-      <c r="D6" s="84" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="84" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="84" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="137" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="84">
-        <v>1.44</v>
-      </c>
-      <c r="D8" s="84">
-        <v>1.2</v>
-      </c>
-      <c r="E8" s="84">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="84">
-        <v>1.2</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8">
-        <f>D8*2/3+E8*1/3</f>
-        <v>0.96666666666666656</v>
-      </c>
-      <c r="I8">
-        <f>D8*60/85+E8*25/85</f>
-        <v>0.99411764705882355</v>
-      </c>
-      <c r="J8">
-        <f>0.55*$C8+0.2*$D8+0.1*$E8+0.15*$F8</f>
-        <v>1.262</v>
-      </c>
-      <c r="K8">
-        <f>0*$C8+0.6*$D8+0.25*$E8+0.15*$F8</f>
-        <v>1.0249999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="B2:F2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49E93F8-6F77-4D9D-A37F-18E004A609A0}">
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="7" width="19.7109375" customWidth="1"/>
-    <col min="9" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="130" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" s="77" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="97"/>
-      <c r="B3" s="119"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="100" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="100" t="s">
-        <v>108</v>
-      </c>
-      <c r="G3" s="100" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="97"/>
-    </row>
-    <row r="4" spans="1:8" s="77" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97"/>
-      <c r="B4" s="120"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="137" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="97"/>
-    </row>
-    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="164" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="121" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="122">
-        <v>1.05</v>
-      </c>
-      <c r="E5" s="122">
-        <v>1.2</v>
-      </c>
-      <c r="F5" s="123">
-        <v>0.7</v>
-      </c>
-      <c r="G5" s="122">
-        <v>1.2</v>
-      </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="165"/>
-      <c r="C6" s="124" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="125">
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="125" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="125" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="125" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="130" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="130"/>
-      <c r="D7" s="84">
-        <v>0</v>
-      </c>
-      <c r="E7" s="84">
-        <v>0</v>
-      </c>
-      <c r="F7" s="84">
-        <v>0</v>
-      </c>
-      <c r="G7" s="84">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="120"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="137" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="164" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="121" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="122">
-        <v>1.05</v>
-      </c>
-      <c r="E9" s="122">
-        <v>0.7</v>
-      </c>
-      <c r="F9" s="123">
-        <v>0</v>
-      </c>
-      <c r="G9" s="122">
-        <v>1.2</v>
-      </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="165"/>
-      <c r="C10" s="124" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="125">
-        <v>0.2</v>
-      </c>
-      <c r="E10" s="125" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="125" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="125" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="163" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="163"/>
-      <c r="D11" s="126">
-        <v>0</v>
-      </c>
-      <c r="E11" s="127">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F11" s="128">
-        <v>0.02</v>
-      </c>
-      <c r="G11" s="126">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5663A099-2651-493D-A992-060117A63C8A}">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3230,13 +2726,13 @@
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="137" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
@@ -3263,16 +2759,16 @@
       <c r="B4" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="95">
+      <c r="C4" s="94">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D4" s="95">
+      <c r="D4" s="94">
         <v>0.2</v>
       </c>
-      <c r="E4" s="95">
+      <c r="E4" s="94">
         <v>0.1</v>
       </c>
-      <c r="F4" s="95">
+      <c r="F4" s="94">
         <v>0.15</v>
       </c>
       <c r="G4" s="27"/>
@@ -3283,16 +2779,16 @@
       <c r="B5" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="96">
+      <c r="C5" s="95">
         <v>0</v>
       </c>
-      <c r="D5" s="96">
+      <c r="D5" s="95">
         <v>0.6</v>
       </c>
-      <c r="E5" s="96">
+      <c r="E5" s="95">
         <v>0.25</v>
       </c>
-      <c r="F5" s="96">
+      <c r="F5" s="95">
         <v>0.15</v>
       </c>
       <c r="G5" s="27"/>
@@ -3339,14 +2835,14 @@
       <c r="H9" s="27"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="94"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3356,7 +2852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A2CBE0-AF60-4563-9A47-BEE291487850}">
   <dimension ref="A1:N58"/>
   <sheetViews>
@@ -3388,71 +2884,71 @@
     </row>
     <row r="2" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
       <c r="M2" s="27"/>
       <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="30"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="134"/>
-      <c r="E3" s="133" t="s">
+      <c r="D3" s="149"/>
+      <c r="E3" s="148" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="134"/>
-      <c r="G3" s="133" t="s">
+      <c r="F3" s="149"/>
+      <c r="G3" s="148" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="134"/>
-      <c r="I3" s="133" t="s">
+      <c r="H3" s="149"/>
+      <c r="I3" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="134"/>
-      <c r="K3" s="133" t="s">
+      <c r="J3" s="149"/>
+      <c r="K3" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="134"/>
+      <c r="L3" s="149"/>
       <c r="M3" s="27"/>
       <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="30"/>
-      <c r="C4" s="129" t="s">
+      <c r="C4" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="134"/>
-      <c r="E4" s="135" t="s">
+      <c r="D4" s="149"/>
+      <c r="E4" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="136"/>
-      <c r="G4" s="137" t="s">
+      <c r="F4" s="143"/>
+      <c r="G4" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="136"/>
-      <c r="I4" s="135" t="s">
+      <c r="H4" s="143"/>
+      <c r="I4" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="136"/>
-      <c r="K4" s="137" t="s">
+      <c r="J4" s="143"/>
+      <c r="K4" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="137"/>
+      <c r="L4" s="142"/>
       <c r="M4" s="27"/>
       <c r="N4" s="7"/>
     </row>
@@ -3743,26 +3239,26 @@
       <c r="B16" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="138">
+      <c r="C16" s="145">
         <v>38</v>
       </c>
-      <c r="D16" s="139"/>
-      <c r="E16" s="140">
+      <c r="D16" s="146"/>
+      <c r="E16" s="147">
         <v>38</v>
       </c>
-      <c r="F16" s="139"/>
-      <c r="G16" s="138">
+      <c r="F16" s="146"/>
+      <c r="G16" s="145">
         <v>38</v>
       </c>
-      <c r="H16" s="139"/>
-      <c r="I16" s="140">
+      <c r="H16" s="146"/>
+      <c r="I16" s="147">
         <v>38</v>
       </c>
-      <c r="J16" s="139"/>
-      <c r="K16" s="138">
+      <c r="J16" s="146"/>
+      <c r="K16" s="145">
         <v>38</v>
       </c>
-      <c r="L16" s="138"/>
+      <c r="L16" s="145"/>
       <c r="M16" s="27"/>
       <c r="N16" s="7"/>
     </row>
@@ -3771,44 +3267,44 @@
       <c r="B17" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="141">
+      <c r="C17" s="139">
         <v>0.30566541074933518</v>
       </c>
-      <c r="D17" s="142"/>
-      <c r="E17" s="143">
+      <c r="D17" s="140"/>
+      <c r="E17" s="141">
         <v>0.29069709635633112</v>
       </c>
-      <c r="F17" s="142"/>
-      <c r="G17" s="141">
+      <c r="F17" s="140"/>
+      <c r="G17" s="139">
         <v>0.72602714664401657</v>
       </c>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143">
+      <c r="H17" s="140"/>
+      <c r="I17" s="141">
         <v>0.79510827890217706</v>
       </c>
-      <c r="J17" s="142"/>
-      <c r="K17" s="141">
+      <c r="J17" s="140"/>
+      <c r="K17" s="139">
         <v>0.7906694981397554</v>
       </c>
-      <c r="L17" s="141"/>
+      <c r="L17" s="139"/>
       <c r="M17" s="27"/>
       <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
-      <c r="B18" s="131" t="s">
+      <c r="B18" s="151" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="132"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="132"/>
-      <c r="K18" s="132"/>
-      <c r="L18" s="132"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="152"/>
+      <c r="K18" s="152"/>
+      <c r="L18" s="152"/>
       <c r="M18" s="27"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -3818,18 +3314,18 @@
       <c r="D19" s="24"/>
       <c r="E19" s="17"/>
       <c r="F19" s="52"/>
-      <c r="G19" s="133" t="s">
+      <c r="G19" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="134"/>
-      <c r="I19" s="133" t="s">
+      <c r="H19" s="149"/>
+      <c r="I19" s="148" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="134"/>
-      <c r="K19" s="133" t="s">
+      <c r="J19" s="149"/>
+      <c r="K19" s="148" t="s">
         <v>43</v>
       </c>
-      <c r="L19" s="134"/>
+      <c r="L19" s="149"/>
       <c r="M19" s="27"/>
     </row>
     <row r="20" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3839,18 +3335,18 @@
       <c r="D20" s="24"/>
       <c r="E20" s="17"/>
       <c r="F20" s="52"/>
-      <c r="G20" s="144" t="s">
+      <c r="G20" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="134"/>
-      <c r="I20" s="135" t="s">
+      <c r="H20" s="149"/>
+      <c r="I20" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="136"/>
-      <c r="K20" s="137" t="s">
+      <c r="J20" s="143"/>
+      <c r="K20" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="L20" s="137"/>
+      <c r="L20" s="142"/>
       <c r="M20" s="27"/>
     </row>
     <row r="21" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3858,7 +3354,7 @@
       <c r="B21" s="32"/>
       <c r="C21" s="82"/>
       <c r="D21" s="82"/>
-      <c r="E21" s="93"/>
+      <c r="E21" s="92"/>
       <c r="F21" s="53"/>
       <c r="G21" s="82" t="s">
         <v>47</v>
@@ -4097,18 +3593,18 @@
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
       <c r="F32" s="54"/>
-      <c r="G32" s="140">
+      <c r="G32" s="147">
         <v>38</v>
       </c>
-      <c r="H32" s="139"/>
-      <c r="I32" s="140">
+      <c r="H32" s="146"/>
+      <c r="I32" s="147">
         <v>38</v>
       </c>
-      <c r="J32" s="139"/>
-      <c r="K32" s="138">
+      <c r="J32" s="146"/>
+      <c r="K32" s="145">
         <v>38</v>
       </c>
-      <c r="L32" s="138"/>
+      <c r="L32" s="145"/>
       <c r="M32" s="27"/>
     </row>
     <row r="33" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4120,18 +3616,18 @@
       <c r="D33" s="76"/>
       <c r="E33" s="76"/>
       <c r="F33" s="55"/>
-      <c r="G33" s="143">
+      <c r="G33" s="141">
         <v>0.48341395624872252</v>
       </c>
-      <c r="H33" s="142"/>
-      <c r="I33" s="143">
+      <c r="H33" s="140"/>
+      <c r="I33" s="141">
         <v>0.53998913899059575</v>
       </c>
-      <c r="J33" s="142"/>
-      <c r="K33" s="141">
+      <c r="J33" s="140"/>
+      <c r="K33" s="139">
         <v>0.55376503919168529</v>
       </c>
-      <c r="L33" s="141"/>
+      <c r="L33" s="139"/>
       <c r="M33" s="27"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -4222,12 +3718,12 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B45" s="24"/>
-      <c r="G45" s="137"/>
-      <c r="H45" s="136"/>
-      <c r="I45" s="135"/>
-      <c r="J45" s="136"/>
-      <c r="K45" s="137"/>
-      <c r="L45" s="137"/>
+      <c r="G45" s="142"/>
+      <c r="H45" s="143"/>
+      <c r="I45" s="144"/>
+      <c r="J45" s="143"/>
+      <c r="K45" s="142"/>
+      <c r="L45" s="142"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B46" s="24"/>
@@ -4326,44 +3822,29 @@
       <c r="L56" s="19"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G57" s="138"/>
-      <c r="H57" s="139"/>
-      <c r="I57" s="140"/>
-      <c r="J57" s="139"/>
-      <c r="K57" s="138"/>
-      <c r="L57" s="138"/>
+      <c r="G57" s="145"/>
+      <c r="H57" s="146"/>
+      <c r="I57" s="147"/>
+      <c r="J57" s="146"/>
+      <c r="K57" s="145"/>
+      <c r="L57" s="145"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G58" s="141"/>
-      <c r="H58" s="142"/>
-      <c r="I58" s="143"/>
-      <c r="J58" s="142"/>
-      <c r="K58" s="141"/>
-      <c r="L58" s="141"/>
+      <c r="G58" s="139"/>
+      <c r="H58" s="140"/>
+      <c r="I58" s="141"/>
+      <c r="J58" s="140"/>
+      <c r="K58" s="139"/>
+      <c r="L58" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
     <mergeCell ref="B18:L18"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
@@ -4380,19 +3861,34 @@
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I29"/>
   <sheetViews>
@@ -4412,14 +3908,14 @@
   <sheetData>
     <row r="2" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
@@ -4687,14 +4183,14 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="166" t="s">
+      <c r="B16" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="166"/>
-      <c r="D16" s="166"/>
-      <c r="E16" s="166"/>
-      <c r="F16" s="166"/>
-      <c r="G16" s="166"/>
+      <c r="C16" s="174"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
     </row>
     <row r="17" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
@@ -4890,7 +4386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F644A70-15E8-470C-9476-7BBEB7370E96}">
   <dimension ref="A1:N58"/>
   <sheetViews>
@@ -4922,71 +4418,71 @@
     </row>
     <row r="2" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
       <c r="M2" s="27"/>
       <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="30"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="134"/>
-      <c r="E3" s="133" t="s">
+      <c r="D3" s="149"/>
+      <c r="E3" s="148" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="134"/>
-      <c r="G3" s="133" t="s">
+      <c r="F3" s="149"/>
+      <c r="G3" s="148" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="134"/>
-      <c r="I3" s="133" t="s">
+      <c r="H3" s="149"/>
+      <c r="I3" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="134"/>
-      <c r="K3" s="133" t="s">
+      <c r="J3" s="149"/>
+      <c r="K3" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="134"/>
+      <c r="L3" s="149"/>
       <c r="M3" s="27"/>
       <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="30"/>
-      <c r="C4" s="129" t="s">
+      <c r="C4" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="134"/>
-      <c r="E4" s="135" t="s">
+      <c r="D4" s="149"/>
+      <c r="E4" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="136"/>
-      <c r="G4" s="137" t="s">
+      <c r="F4" s="143"/>
+      <c r="G4" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="136"/>
-      <c r="I4" s="135" t="s">
+      <c r="H4" s="143"/>
+      <c r="I4" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="136"/>
-      <c r="K4" s="137" t="s">
+      <c r="J4" s="143"/>
+      <c r="K4" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="137"/>
+      <c r="L4" s="142"/>
       <c r="M4" s="27"/>
       <c r="N4" s="7"/>
     </row>
@@ -5277,26 +4773,26 @@
       <c r="B16" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="138">
+      <c r="C16" s="145">
         <v>38</v>
       </c>
-      <c r="D16" s="139"/>
-      <c r="E16" s="140">
+      <c r="D16" s="146"/>
+      <c r="E16" s="147">
         <v>38</v>
       </c>
-      <c r="F16" s="139"/>
-      <c r="G16" s="138">
+      <c r="F16" s="146"/>
+      <c r="G16" s="145">
         <v>38</v>
       </c>
-      <c r="H16" s="139"/>
-      <c r="I16" s="140">
+      <c r="H16" s="146"/>
+      <c r="I16" s="147">
         <v>38</v>
       </c>
-      <c r="J16" s="139"/>
-      <c r="K16" s="138">
+      <c r="J16" s="146"/>
+      <c r="K16" s="145">
         <v>38</v>
       </c>
-      <c r="L16" s="138"/>
+      <c r="L16" s="145"/>
       <c r="M16" s="27"/>
       <c r="N16" s="7"/>
     </row>
@@ -5305,44 +4801,44 @@
       <c r="B17" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="141">
+      <c r="C17" s="139">
         <v>0.30566541074933518</v>
       </c>
-      <c r="D17" s="142"/>
-      <c r="E17" s="143">
+      <c r="D17" s="140"/>
+      <c r="E17" s="141">
         <v>0.29069709635633112</v>
       </c>
-      <c r="F17" s="142"/>
-      <c r="G17" s="141">
+      <c r="F17" s="140"/>
+      <c r="G17" s="139">
         <v>0.72602714664401657</v>
       </c>
-      <c r="H17" s="142"/>
-      <c r="I17" s="143">
+      <c r="H17" s="140"/>
+      <c r="I17" s="141">
         <v>0.79510827890217706</v>
       </c>
-      <c r="J17" s="142"/>
-      <c r="K17" s="141">
+      <c r="J17" s="140"/>
+      <c r="K17" s="139">
         <v>0.7906694981397554</v>
       </c>
-      <c r="L17" s="141"/>
+      <c r="L17" s="139"/>
       <c r="M17" s="27"/>
       <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
-      <c r="B18" s="131" t="s">
+      <c r="B18" s="151" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="132"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="132"/>
-      <c r="K18" s="132"/>
-      <c r="L18" s="132"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="152"/>
+      <c r="K18" s="152"/>
+      <c r="L18" s="152"/>
       <c r="M18" s="27"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -5352,18 +4848,18 @@
       <c r="D19" s="24"/>
       <c r="E19" s="17"/>
       <c r="F19" s="52"/>
-      <c r="G19" s="133" t="s">
+      <c r="G19" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="134"/>
-      <c r="I19" s="133" t="s">
+      <c r="H19" s="149"/>
+      <c r="I19" s="148" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="134"/>
-      <c r="K19" s="133" t="s">
+      <c r="J19" s="149"/>
+      <c r="K19" s="148" t="s">
         <v>43</v>
       </c>
-      <c r="L19" s="134"/>
+      <c r="L19" s="149"/>
       <c r="M19" s="27"/>
     </row>
     <row r="20" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5373,18 +4869,18 @@
       <c r="D20" s="24"/>
       <c r="E20" s="17"/>
       <c r="F20" s="52"/>
-      <c r="G20" s="144" t="s">
+      <c r="G20" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="134"/>
-      <c r="I20" s="135" t="s">
+      <c r="H20" s="149"/>
+      <c r="I20" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="136"/>
-      <c r="K20" s="137" t="s">
+      <c r="J20" s="143"/>
+      <c r="K20" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="L20" s="137"/>
+      <c r="L20" s="142"/>
       <c r="M20" s="27"/>
     </row>
     <row r="21" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -5631,18 +5127,18 @@
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
       <c r="F32" s="54"/>
-      <c r="G32" s="140">
+      <c r="G32" s="147">
         <v>38</v>
       </c>
-      <c r="H32" s="139"/>
-      <c r="I32" s="140">
+      <c r="H32" s="146"/>
+      <c r="I32" s="147">
         <v>38</v>
       </c>
-      <c r="J32" s="139"/>
-      <c r="K32" s="138">
+      <c r="J32" s="146"/>
+      <c r="K32" s="145">
         <v>38</v>
       </c>
-      <c r="L32" s="138"/>
+      <c r="L32" s="145"/>
       <c r="M32" s="27"/>
     </row>
     <row r="33" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5654,18 +5150,18 @@
       <c r="D33" s="41"/>
       <c r="E33" s="41"/>
       <c r="F33" s="55"/>
-      <c r="G33" s="143">
+      <c r="G33" s="141">
         <v>0.48341395624872252</v>
       </c>
-      <c r="H33" s="142"/>
-      <c r="I33" s="143">
+      <c r="H33" s="140"/>
+      <c r="I33" s="141">
         <v>0.53998913899059575</v>
       </c>
-      <c r="J33" s="142"/>
-      <c r="K33" s="141">
+      <c r="J33" s="140"/>
+      <c r="K33" s="139">
         <v>0.55376503919168529</v>
       </c>
-      <c r="L33" s="141"/>
+      <c r="L33" s="139"/>
       <c r="M33" s="27"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -5756,12 +5252,12 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B45" s="24"/>
-      <c r="G45" s="137"/>
-      <c r="H45" s="136"/>
-      <c r="I45" s="135"/>
-      <c r="J45" s="136"/>
-      <c r="K45" s="137"/>
-      <c r="L45" s="137"/>
+      <c r="G45" s="142"/>
+      <c r="H45" s="143"/>
+      <c r="I45" s="144"/>
+      <c r="J45" s="143"/>
+      <c r="K45" s="142"/>
+      <c r="L45" s="142"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B46" s="24"/>
@@ -5860,50 +5356,23 @@
       <c r="L56" s="19"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G57" s="138"/>
-      <c r="H57" s="139"/>
-      <c r="I57" s="140"/>
-      <c r="J57" s="139"/>
-      <c r="K57" s="138"/>
-      <c r="L57" s="138"/>
+      <c r="G57" s="145"/>
+      <c r="H57" s="146"/>
+      <c r="I57" s="147"/>
+      <c r="J57" s="146"/>
+      <c r="K57" s="145"/>
+      <c r="L57" s="145"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G58" s="141"/>
-      <c r="H58" s="142"/>
-      <c r="I58" s="143"/>
-      <c r="J58" s="142"/>
-      <c r="K58" s="141"/>
-      <c r="L58" s="141"/>
+      <c r="G58" s="139"/>
+      <c r="H58" s="140"/>
+      <c r="I58" s="141"/>
+      <c r="J58" s="140"/>
+      <c r="K58" s="139"/>
+      <c r="L58" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B18:L18"/>
     <mergeCell ref="G32:H32"/>
@@ -5920,6 +5389,33 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5929,7 +5425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4AF087E-D102-4B84-94C4-5B74DC1F0791}">
   <dimension ref="A1:I33"/>
   <sheetViews>
@@ -5961,49 +5457,49 @@
     </row>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
       <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="31"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="145"/>
-      <c r="E3" s="133" t="s">
+      <c r="D3" s="161"/>
+      <c r="E3" s="148" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="145"/>
-      <c r="G3" s="133" t="s">
+      <c r="F3" s="161"/>
+      <c r="G3" s="148" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="145"/>
+      <c r="H3" s="161"/>
       <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="31"/>
-      <c r="C4" s="129" t="s">
+      <c r="C4" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="145"/>
-      <c r="E4" s="146" t="s">
+      <c r="D4" s="161"/>
+      <c r="E4" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="147"/>
-      <c r="G4" s="129" t="s">
+      <c r="F4" s="163"/>
+      <c r="G4" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="129"/>
+      <c r="H4" s="136"/>
       <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6162,18 +5658,18 @@
       <c r="B14" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="138">
+      <c r="C14" s="145">
         <v>38</v>
       </c>
-      <c r="D14" s="150"/>
-      <c r="E14" s="154">
+      <c r="D14" s="157"/>
+      <c r="E14" s="160">
         <v>38</v>
       </c>
-      <c r="F14" s="150"/>
-      <c r="G14" s="138">
+      <c r="F14" s="157"/>
+      <c r="G14" s="145">
         <v>38</v>
       </c>
-      <c r="H14" s="138"/>
+      <c r="H14" s="145"/>
       <c r="I14" s="27"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6181,65 +5677,65 @@
       <c r="B15" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="141">
+      <c r="C15" s="139">
         <v>0.55581969851319468</v>
       </c>
-      <c r="D15" s="151"/>
-      <c r="E15" s="167">
+      <c r="D15" s="158"/>
+      <c r="E15" s="175">
         <v>0.54352923406841147</v>
       </c>
-      <c r="F15" s="168"/>
-      <c r="G15" s="141">
+      <c r="F15" s="176"/>
+      <c r="G15" s="139">
         <v>0.55189173576406514</v>
       </c>
-      <c r="H15" s="141"/>
+      <c r="H15" s="139"/>
       <c r="I15" s="27"/>
     </row>
     <row r="16" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
-      <c r="B16" s="132" t="s">
+      <c r="B16" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="132"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="152"/>
       <c r="I16" s="27"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="30"/>
-      <c r="C17" s="133" t="s">
+      <c r="C17" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="145"/>
-      <c r="E17" s="133" t="s">
+      <c r="D17" s="161"/>
+      <c r="E17" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="145"/>
-      <c r="G17" s="133" t="s">
+      <c r="F17" s="161"/>
+      <c r="G17" s="148" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="145"/>
+      <c r="H17" s="161"/>
       <c r="I17" s="27"/>
     </row>
     <row r="18" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="30"/>
-      <c r="C18" s="129" t="s">
+      <c r="C18" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="145"/>
-      <c r="E18" s="146" t="s">
+      <c r="D18" s="161"/>
+      <c r="E18" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="147"/>
-      <c r="G18" s="129" t="s">
+      <c r="F18" s="163"/>
+      <c r="G18" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="129"/>
+      <c r="H18" s="136"/>
       <c r="I18" s="27"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6398,18 +5894,18 @@
       <c r="B28" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="138">
+      <c r="C28" s="145">
         <v>38</v>
       </c>
-      <c r="D28" s="150"/>
-      <c r="E28" s="154">
+      <c r="D28" s="157"/>
+      <c r="E28" s="160">
         <v>38</v>
       </c>
-      <c r="F28" s="150"/>
-      <c r="G28" s="138">
+      <c r="F28" s="157"/>
+      <c r="G28" s="145">
         <v>38</v>
       </c>
-      <c r="H28" s="138"/>
+      <c r="H28" s="145"/>
       <c r="I28" s="27"/>
     </row>
     <row r="29" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6417,42 +5913,42 @@
       <c r="B29" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="158">
+      <c r="C29" s="179">
         <v>8.7068576318375279E-2</v>
       </c>
-      <c r="D29" s="153"/>
-      <c r="E29" s="152">
+      <c r="D29" s="178"/>
+      <c r="E29" s="177">
         <v>0.1066523504141621</v>
       </c>
-      <c r="F29" s="153"/>
-      <c r="G29" s="141">
+      <c r="F29" s="178"/>
+      <c r="G29" s="139">
         <v>6.1086704610555098E-2</v>
       </c>
-      <c r="H29" s="141"/>
+      <c r="H29" s="139"/>
       <c r="I29" s="27"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
-      <c r="B30" s="156" t="s">
+      <c r="B30" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="156"/>
-      <c r="D30" s="156"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="156"/>
-      <c r="H30" s="156"/>
+      <c r="C30" s="166"/>
+      <c r="D30" s="166"/>
+      <c r="E30" s="166"/>
+      <c r="F30" s="166"/>
+      <c r="G30" s="166"/>
+      <c r="H30" s="166"/>
       <c r="I30" s="27"/>
     </row>
     <row r="31" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
-      <c r="B31" s="157"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="157"/>
-      <c r="H31" s="157"/>
+      <c r="B31" s="167"/>
+      <c r="C31" s="167"/>
+      <c r="D31" s="167"/>
+      <c r="E31" s="167"/>
+      <c r="F31" s="167"/>
+      <c r="G31" s="167"/>
+      <c r="H31" s="167"/>
       <c r="I31" s="27"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -6479,6 +5975,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
@@ -6495,17 +6002,6 @@
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -6514,7 +6010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67960ACA-D433-4506-97D2-88BB510C36DA}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6524,6 +6020,747 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C89BA0-416B-417C-AA31-30FDBB55A55B}">
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" customWidth="1"/>
+    <col min="4" max="10" width="9.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+    </row>
+    <row r="2" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="151" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="27"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="148" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="161"/>
+      <c r="E3" s="148" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="161"/>
+      <c r="G3" s="164" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="168"/>
+      <c r="I3" s="148" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="136"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="142" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="161"/>
+      <c r="E4" s="162" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="163"/>
+      <c r="G4" s="162" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="163"/>
+      <c r="I4" s="162" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="136"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="73">
+        <v>1.1985710435027721</v>
+      </c>
+      <c r="D6" s="36">
+        <v>1.7432070603919606E-7</v>
+      </c>
+      <c r="E6" s="106">
+        <v>0.91624794461780756</v>
+      </c>
+      <c r="F6" s="36">
+        <v>1.2869297199360935E-5</v>
+      </c>
+      <c r="G6" s="110">
+        <v>0.69960251025962072</v>
+      </c>
+      <c r="H6" s="36">
+        <v>3.9545306886094363E-3</v>
+      </c>
+      <c r="I6" s="113">
+        <v>0.77314979187053146</v>
+      </c>
+      <c r="J6" s="114">
+        <v>5.89162216186539E-4</v>
+      </c>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="106">
+        <v>-2.441733370653024E-2</v>
+      </c>
+      <c r="F7" s="36">
+        <v>2.4277773113505386E-3</v>
+      </c>
+      <c r="G7" s="106">
+        <v>-3.2731435922535509E-2</v>
+      </c>
+      <c r="H7" s="36">
+        <v>9.0582967642711075E-4</v>
+      </c>
+      <c r="I7" s="111"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="110">
+        <v>-2.5800857032040939E-2</v>
+      </c>
+      <c r="J8" s="25">
+        <v>2.7208136610027164E-3</v>
+      </c>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="65">
+        <v>1.1032746473047938E-3</v>
+      </c>
+      <c r="D9" s="36">
+        <v>0.68929987415507576</v>
+      </c>
+      <c r="E9" s="107">
+        <v>5.1700930751561831E-3</v>
+      </c>
+      <c r="F9" s="36">
+        <v>6.1154618589393979E-2</v>
+      </c>
+      <c r="G9" s="106">
+        <v>9.8366455164323029E-3</v>
+      </c>
+      <c r="H9" s="36">
+        <v>1.1844059003509582E-2</v>
+      </c>
+      <c r="I9" s="111">
+        <v>6.2906788237488123E-3</v>
+      </c>
+      <c r="J9" s="25">
+        <v>3.5064944989601984E-2</v>
+      </c>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="145">
+        <v>31</v>
+      </c>
+      <c r="D10" s="157"/>
+      <c r="E10" s="145">
+        <v>32</v>
+      </c>
+      <c r="F10" s="157"/>
+      <c r="G10" s="160">
+        <v>21</v>
+      </c>
+      <c r="H10" s="157"/>
+      <c r="I10" s="145">
+        <v>33</v>
+      </c>
+      <c r="J10" s="145"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="115" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="139">
+        <f>N11</f>
+        <v>0.61571897814696952</v>
+      </c>
+      <c r="D11" s="158"/>
+      <c r="E11" s="159">
+        <f>O11</f>
+        <v>0.72486496224438524</v>
+      </c>
+      <c r="F11" s="158"/>
+      <c r="G11" s="159">
+        <f>P11</f>
+        <v>0.79096913931575263</v>
+      </c>
+      <c r="H11" s="158"/>
+      <c r="I11" s="139">
+        <f>Q11</f>
+        <v>0.72277433456881901</v>
+      </c>
+      <c r="J11" s="139"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11">
+        <v>0.61571897814696952</v>
+      </c>
+      <c r="O11">
+        <v>0.72486496224438524</v>
+      </c>
+      <c r="P11">
+        <v>0.79096913931575263</v>
+      </c>
+      <c r="Q11">
+        <v>0.72277433456881901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27"/>
+      <c r="B12" s="153" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="154"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="154"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="148" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="161"/>
+      <c r="E13" s="148" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="161"/>
+      <c r="G13" s="164" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="168"/>
+      <c r="I13" s="148" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="136"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:17" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="136" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="161"/>
+      <c r="E14" s="162" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="163"/>
+      <c r="G14" s="162" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="163"/>
+      <c r="I14" s="162" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" s="136"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="57">
+        <v>0.50268652081425647</v>
+      </c>
+      <c r="D16" s="37">
+        <v>5.3734674916031573E-2</v>
+      </c>
+      <c r="E16" s="109">
+        <v>0.37350267384449576</v>
+      </c>
+      <c r="F16" s="37">
+        <v>0.20406338826988368</v>
+      </c>
+      <c r="G16" s="109">
+        <v>0.55232925117860721</v>
+      </c>
+      <c r="H16" s="37">
+        <v>0.15238834234927567</v>
+      </c>
+      <c r="I16" s="109">
+        <v>0.37749099350366305</v>
+      </c>
+      <c r="J16" s="19">
+        <v>0.26534093475150033</v>
+      </c>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="57"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="109">
+        <v>-1.1172748929903331E-2</v>
+      </c>
+      <c r="F17" s="37">
+        <v>0.36481327385789131</v>
+      </c>
+      <c r="G17" s="109">
+        <v>-4.2366440390252105E-3</v>
+      </c>
+      <c r="H17" s="37">
+        <v>0.77197944038505806</v>
+      </c>
+      <c r="I17" s="109"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
+      <c r="B18" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="60"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="109">
+        <v>-7.5928315494307565E-3</v>
+      </c>
+      <c r="J18" s="19">
+        <v>0.56552206628954749</v>
+      </c>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
+      <c r="B19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="57">
+        <v>-1.5785462754268242E-4</v>
+      </c>
+      <c r="D19" s="37">
+        <v>0.96786351519638458</v>
+      </c>
+      <c r="E19" s="109">
+        <v>1.7030177258435439E-3</v>
+      </c>
+      <c r="F19" s="37">
+        <v>0.70082957419222935</v>
+      </c>
+      <c r="G19" s="109">
+        <v>-2.222274387913272E-3</v>
+      </c>
+      <c r="H19" s="37">
+        <v>0.72121943519152154</v>
+      </c>
+      <c r="I19" s="109">
+        <v>1.3687259058729304E-3</v>
+      </c>
+      <c r="J19" s="19">
+        <v>0.77422976383740183</v>
+      </c>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="27"/>
+      <c r="B20" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="145">
+        <v>31</v>
+      </c>
+      <c r="D20" s="157"/>
+      <c r="E20" s="145">
+        <v>32</v>
+      </c>
+      <c r="F20" s="157"/>
+      <c r="G20" s="160">
+        <v>21</v>
+      </c>
+      <c r="H20" s="157"/>
+      <c r="I20" s="145">
+        <v>33</v>
+      </c>
+      <c r="J20" s="145"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
+      <c r="B21" s="115" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="139">
+        <f>N21</f>
+        <v>0.12235556050138582</v>
+      </c>
+      <c r="D21" s="158"/>
+      <c r="E21" s="159">
+        <f>O21</f>
+        <v>0.14817255106920282</v>
+      </c>
+      <c r="F21" s="158"/>
+      <c r="G21" s="159">
+        <f>P21</f>
+        <v>0.20221725039002678</v>
+      </c>
+      <c r="H21" s="158"/>
+      <c r="I21" s="159">
+        <f>Q21</f>
+        <v>0.13282978602147921</v>
+      </c>
+      <c r="J21" s="139"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21">
+        <v>0.12235556050138582</v>
+      </c>
+      <c r="O21">
+        <v>0.14817255106920282</v>
+      </c>
+      <c r="P21">
+        <v>0.20221725039002678</v>
+      </c>
+      <c r="Q21">
+        <v>0.13282978602147921</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="27"/>
+      <c r="B22" s="166" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="166"/>
+      <c r="D22" s="166"/>
+      <c r="E22" s="166"/>
+      <c r="F22" s="166"/>
+      <c r="G22" s="166"/>
+      <c r="H22" s="166"/>
+      <c r="I22" s="166"/>
+      <c r="J22" s="166"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
+      <c r="B23" s="167"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="167"/>
+      <c r="H23" s="167"/>
+      <c r="I23" s="167"/>
+      <c r="J23" s="167"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B22:J23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6543,39 +6780,39 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="130" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="137" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="32"/>
-      <c r="C3" s="106">
+      <c r="C3" s="103">
         <v>-0.4</v>
       </c>
-      <c r="D3" s="106">
+      <c r="D3" s="103">
         <v>-0.3</v>
       </c>
-      <c r="E3" s="106">
+      <c r="E3" s="103">
         <v>-0.2</v>
       </c>
-      <c r="F3" s="106">
+      <c r="F3" s="103">
         <v>-0.1</v>
       </c>
       <c r="G3" s="7"/>
@@ -6584,18 +6821,18 @@
     <row r="4" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="105">
+        <v>79</v>
+      </c>
+      <c r="C4" s="102">
         <v>1E-3</v>
       </c>
-      <c r="D4" s="105">
+      <c r="D4" s="102">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="E4" s="105">
+      <c r="E4" s="102">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="F4" s="105">
+      <c r="F4" s="102">
         <v>9.06E-2</v>
       </c>
       <c r="G4" s="7"/>
@@ -6604,18 +6841,18 @@
     <row r="5" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="105">
+        <v>81</v>
+      </c>
+      <c r="C5" s="102">
         <v>0</v>
       </c>
-      <c r="D5" s="105">
+      <c r="D5" s="102">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="E5" s="105">
+      <c r="E5" s="102">
         <v>3.0200000000000001E-2</v>
       </c>
-      <c r="F5" s="105">
+      <c r="F5" s="102">
         <v>0.1226</v>
       </c>
       <c r="G5" s="7"/>
@@ -6624,18 +6861,18 @@
     <row r="6" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="105">
+        <v>92</v>
+      </c>
+      <c r="C6" s="102">
         <v>0</v>
       </c>
-      <c r="D6" s="105">
+      <c r="D6" s="102">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="E6" s="105">
+      <c r="E6" s="102">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F6" s="105">
+      <c r="F6" s="102">
         <v>4.7600000000000003E-2</v>
       </c>
       <c r="G6" s="7"/>
@@ -6644,18 +6881,18 @@
     <row r="7" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="103">
+        <v>93</v>
+      </c>
+      <c r="C7" s="100">
         <v>0</v>
       </c>
-      <c r="D7" s="103">
+      <c r="D7" s="100">
         <v>0</v>
       </c>
-      <c r="E7" s="103">
+      <c r="E7" s="100">
         <v>0</v>
       </c>
-      <c r="F7" s="103">
+      <c r="F7" s="100">
         <v>6.3E-2</v>
       </c>
       <c r="G7" s="7"/>
@@ -7544,55 +7781,55 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="172" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="172" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="172" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="172" t="s">
-        <v>119</v>
-      </c>
-      <c r="F2" s="172" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" s="172" t="s">
-        <v>121</v>
+      <c r="B2" s="129" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="129" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="129" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="129" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="129" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="173">
+        <v>104</v>
+      </c>
+      <c r="B3" s="130">
         <v>0.02</v>
       </c>
-      <c r="C3" s="173">
+      <c r="C3" s="130">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D3" s="173">
+      <c r="D3" s="130">
         <v>0.02</v>
       </c>
-      <c r="E3" s="173">
+      <c r="E3" s="130">
         <v>0.02</v>
       </c>
-      <c r="F3" s="173">
+      <c r="F3" s="130">
         <v>0.02</v>
       </c>
-      <c r="G3" s="173">
+      <c r="G3" s="130">
         <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -7612,7 +7849,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D5">
         <v>0.22</v>
@@ -7629,7 +7866,7 @@
     </row>
     <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7645,91 +7882,91 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="172" t="s">
-        <v>127</v>
+      <c r="A8" s="129" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="175" t="s">
-        <v>129</v>
+      <c r="A9" s="132" t="s">
+        <v>117</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="175" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="173">
+      <c r="A10" s="132" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="130">
         <f>D6*$B9</f>
         <v>0</v>
       </c>
-      <c r="E10" s="173">
+      <c r="E10" s="130">
         <f t="shared" ref="E10:G10" si="0">E6*$B9</f>
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="F10" s="173">
+      <c r="F10" s="130">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="173">
+      <c r="G10" s="130">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" s="174">
+        <v>114</v>
+      </c>
+      <c r="B11" s="131">
         <v>-0.04</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="131">
         <v>-0.37</v>
       </c>
-      <c r="D11" s="173">
+      <c r="D11" s="130">
         <f>B11*$D4+C11*$D5</f>
         <v>-0.12140000000000001</v>
       </c>
-      <c r="E11" s="173">
+      <c r="E11" s="130">
         <f>$B11*$E4</f>
         <v>-3.6000000000000004E-2</v>
       </c>
-      <c r="F11" s="173">
+      <c r="F11" s="130">
         <f>$B11*$F4</f>
         <v>0</v>
       </c>
-      <c r="G11" s="173">
+      <c r="G11" s="130">
         <f>$B11*$G4</f>
         <v>-5.2000000000000005E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12" s="173">
+        <v>113</v>
+      </c>
+      <c r="B12" s="130">
         <f>B3+B11</f>
         <v>-0.02</v>
       </c>
-      <c r="C12" s="173">
+      <c r="C12" s="130">
         <f>C3+C11</f>
         <v>-0.3</v>
       </c>
-      <c r="D12" s="173">
+      <c r="D12" s="130">
         <f>D3+D11 + D10</f>
         <v>-0.1014</v>
       </c>
-      <c r="E12" s="173">
+      <c r="E12" s="130">
         <f>E3+E11+E10</f>
         <v>-4.1000000000000009E-2</v>
       </c>
-      <c r="F12" s="173">
+      <c r="F12" s="130">
         <f>F3+F11 + F10</f>
         <v>0.02</v>
       </c>
-      <c r="G12" s="173">
+      <c r="G12" s="130">
         <f>G3+G11+G10</f>
         <v>-3.2000000000000001E-2</v>
       </c>
@@ -7745,51 +7982,51 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="172" t="s">
-        <v>117</v>
-      </c>
-      <c r="C30" s="172" t="s">
-        <v>124</v>
-      </c>
-      <c r="D30" s="172" t="s">
-        <v>118</v>
-      </c>
-      <c r="E30" s="172" t="s">
-        <v>119</v>
-      </c>
-      <c r="F30" s="172" t="s">
-        <v>120</v>
-      </c>
-      <c r="G30" s="172" t="s">
-        <v>121</v>
+      <c r="B30" s="129" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="129" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="129" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" s="129" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" s="129" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>116</v>
-      </c>
-      <c r="B31" s="173">
+        <v>104</v>
+      </c>
+      <c r="B31" s="130">
         <v>1.4E-2</v>
       </c>
-      <c r="C31" s="173">
+      <c r="C31" s="130">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="D31" s="173">
+      <c r="D31" s="130">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E31" s="173">
+      <c r="E31" s="130">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="F31" s="173">
+      <c r="F31" s="130">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="G31" s="173">
+      <c r="G31" s="130">
         <v>8.3000000000000001E-3</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -7809,7 +8046,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D33">
         <v>0.22</v>
@@ -7826,7 +8063,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -7842,89 +8079,89 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="172"/>
+      <c r="A36" s="129"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="175" t="s">
-        <v>129</v>
+      <c r="A37" s="132" t="s">
+        <v>117</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="175" t="s">
-        <v>130</v>
-      </c>
-      <c r="D38" s="173">
+      <c r="A38" s="132" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="130">
         <f>D34*$B37</f>
         <v>0</v>
       </c>
-      <c r="E38" s="173">
+      <c r="E38" s="130">
         <f t="shared" ref="E38" si="1">E34*$B37</f>
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="F38" s="173">
+      <c r="F38" s="130">
         <f t="shared" ref="F38" si="2">F34*$B37</f>
         <v>0</v>
       </c>
-      <c r="G38" s="173">
+      <c r="G38" s="130">
         <f t="shared" ref="G38" si="3">G34*$B37</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>126</v>
-      </c>
-      <c r="B39" s="174">
+        <v>114</v>
+      </c>
+      <c r="B39" s="131">
         <v>-5.6000000000000001E-2</v>
       </c>
-      <c r="C39" s="174">
+      <c r="C39" s="131">
         <v>-0.17399999999999999</v>
       </c>
-      <c r="D39" s="173">
+      <c r="D39" s="130">
         <f>B39*$D32+C39*$D33</f>
         <v>-9.4280000000000003E-2</v>
       </c>
-      <c r="E39" s="173">
+      <c r="E39" s="130">
         <f>$B39*$E32</f>
         <v>-5.04E-2</v>
       </c>
-      <c r="F39" s="173">
+      <c r="F39" s="130">
         <f>$B39*$F32</f>
         <v>0</v>
       </c>
-      <c r="G39" s="173">
+      <c r="G39" s="130">
         <f>$B39*$G32</f>
         <v>-7.2800000000000004E-2</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>125</v>
-      </c>
-      <c r="B40" s="173">
+        <v>113</v>
+      </c>
+      <c r="B40" s="130">
         <f>B31+B39</f>
         <v>-4.2000000000000003E-2</v>
       </c>
-      <c r="C40" s="173">
+      <c r="C40" s="130">
         <f>C31+C39</f>
         <v>-0.1578</v>
       </c>
-      <c r="D40" s="173">
+      <c r="D40" s="130">
         <f>D31+D39 + D38</f>
         <v>-7.9280000000000003E-2</v>
       </c>
-      <c r="E40" s="173">
+      <c r="E40" s="130">
         <f>E31+E39+E38</f>
         <v>-6.9200000000000012E-2</v>
       </c>
-      <c r="F40" s="173">
+      <c r="F40" s="130">
         <f>F31+F39 + F38</f>
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="G40" s="173">
+      <c r="G40" s="130">
         <f>G31+G39+G38</f>
         <v>-6.4500000000000002E-2</v>
       </c>
@@ -7936,30 +8173,30 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>116</v>
-      </c>
-      <c r="B42" s="173">
+        <v>104</v>
+      </c>
+      <c r="B42" s="130">
         <v>1.37E-2</v>
       </c>
-      <c r="C42" s="173">
+      <c r="C42" s="130">
         <v>2.4E-2</v>
       </c>
-      <c r="D42" s="173">
+      <c r="D42" s="130">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="E42" s="173">
+      <c r="E42" s="130">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="F42" s="173">
+      <c r="F42" s="130">
         <v>0.02</v>
       </c>
-      <c r="G42" s="173">
+      <c r="G42" s="130">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -7979,7 +8216,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D44">
         <v>0.22</v>
@@ -7996,7 +8233,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -8012,89 +8249,89 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="172"/>
+      <c r="A47" s="129"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="175" t="s">
-        <v>129</v>
+      <c r="A48" s="132" t="s">
+        <v>117</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="175" t="s">
-        <v>130</v>
-      </c>
-      <c r="D49" s="173">
+      <c r="A49" s="132" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" s="130">
         <f>D45*$B48</f>
         <v>0</v>
       </c>
-      <c r="E49" s="173">
+      <c r="E49" s="130">
         <f t="shared" ref="E49" si="4">E45*$B48</f>
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="F49" s="173">
+      <c r="F49" s="130">
         <f t="shared" ref="F49" si="5">F45*$B48</f>
         <v>0</v>
       </c>
-      <c r="G49" s="173">
+      <c r="G49" s="130">
         <f t="shared" ref="G49" si="6">G45*$B48</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>126</v>
-      </c>
-      <c r="B50" s="174">
+        <v>114</v>
+      </c>
+      <c r="B50" s="131">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="C50" s="174">
+      <c r="C50" s="131">
         <v>-0.33800000000000002</v>
       </c>
-      <c r="D50" s="173">
+      <c r="D50" s="130">
         <f>B50*$D43+C50*$D44</f>
         <v>-6.1360000000000012E-2</v>
       </c>
-      <c r="E50" s="173">
+      <c r="E50" s="130">
         <f>$B50*$E43</f>
         <v>1.17E-2</v>
       </c>
-      <c r="F50" s="173">
+      <c r="F50" s="130">
         <f>$B50*$F43</f>
         <v>0</v>
       </c>
-      <c r="G50" s="173">
+      <c r="G50" s="130">
         <f>$B50*$G43</f>
         <v>1.6899999999999998E-2</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>125</v>
-      </c>
-      <c r="B51" s="173">
+        <v>113</v>
+      </c>
+      <c r="B51" s="130">
         <f>B42+B50</f>
         <v>2.6700000000000002E-2</v>
       </c>
-      <c r="C51" s="173">
+      <c r="C51" s="130">
         <f>C42+C50</f>
         <v>-0.314</v>
       </c>
-      <c r="D51" s="173">
+      <c r="D51" s="130">
         <f>D42+D50 + D49</f>
         <v>-4.5460000000000014E-2</v>
       </c>
-      <c r="E51" s="173">
+      <c r="E51" s="130">
         <f>E42+E50+E49</f>
         <v>-6.8999999999999999E-3</v>
       </c>
-      <c r="F51" s="173">
+      <c r="F51" s="130">
         <f>F42+F50 + F49</f>
         <v>0.02</v>
       </c>
-      <c r="G51" s="173">
+      <c r="G51" s="130">
         <f>G42+G50+G49</f>
         <v>2.2899999999999997E-2</v>
       </c>
@@ -8105,51 +8342,51 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="172" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65" s="172" t="s">
-        <v>124</v>
-      </c>
-      <c r="D65" s="172" t="s">
-        <v>118</v>
-      </c>
-      <c r="E65" s="172" t="s">
-        <v>119</v>
-      </c>
-      <c r="F65" s="172" t="s">
-        <v>120</v>
-      </c>
-      <c r="G65" s="172" t="s">
-        <v>121</v>
+      <c r="B65" s="129" t="s">
+        <v>105</v>
+      </c>
+      <c r="C65" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="D65" s="129" t="s">
+        <v>106</v>
+      </c>
+      <c r="E65" s="129" t="s">
+        <v>107</v>
+      </c>
+      <c r="F65" s="129" t="s">
+        <v>108</v>
+      </c>
+      <c r="G65" s="129" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>116</v>
-      </c>
-      <c r="B66" s="173">
+        <v>104</v>
+      </c>
+      <c r="B66" s="130">
         <v>2.8199999999999999E-2</v>
       </c>
-      <c r="C66" s="173">
+      <c r="C66" s="130">
         <v>4.4499999999999998E-2</v>
       </c>
-      <c r="D66" s="173">
+      <c r="D66" s="130">
         <v>2.6599999999999999E-2</v>
       </c>
-      <c r="E66" s="173">
+      <c r="E66" s="130">
         <v>2.1600000000000001E-2</v>
       </c>
-      <c r="F66" s="173">
+      <c r="F66" s="130">
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="G66" s="173">
+      <c r="G66" s="130">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -8169,7 +8406,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D68">
         <v>0.22</v>
@@ -8186,7 +8423,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -8202,97 +8439,97 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="175" t="s">
-        <v>129</v>
+      <c r="A71" s="132" t="s">
+        <v>117</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="175" t="s">
-        <v>130</v>
-      </c>
-      <c r="D72" s="173">
+      <c r="A72" s="132" t="s">
+        <v>118</v>
+      </c>
+      <c r="D72" s="130">
         <f>D69*$B71</f>
         <v>0</v>
       </c>
-      <c r="E72" s="173">
+      <c r="E72" s="130">
         <f>E69*$B71</f>
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="F72" s="173">
+      <c r="F72" s="130">
         <f>F69*$B71</f>
         <v>0</v>
       </c>
-      <c r="G72" s="173">
+      <c r="G72" s="130">
         <f>G69*$B71</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>126</v>
-      </c>
-      <c r="B73" s="174">
+        <v>114</v>
+      </c>
+      <c r="B73" s="131">
         <v>-1.4E-2</v>
       </c>
-      <c r="C73" s="174">
+      <c r="C73" s="131">
         <v>-0.23</v>
       </c>
-      <c r="D73" s="173">
+      <c r="D73" s="130">
         <f>B73*$D67+C73*$D68</f>
         <v>-6.4600000000000005E-2</v>
       </c>
-      <c r="E73" s="173">
+      <c r="E73" s="130">
         <f>$B73*$E67</f>
         <v>-1.26E-2</v>
       </c>
-      <c r="F73" s="173">
+      <c r="F73" s="130">
         <f>$B73*$F67</f>
         <v>0</v>
       </c>
-      <c r="G73" s="173">
+      <c r="G73" s="130">
         <f>$B73*$G67</f>
         <v>-1.8200000000000001E-2</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>125</v>
-      </c>
-      <c r="B74" s="173">
+        <v>113</v>
+      </c>
+      <c r="B74" s="130">
         <f>B66+B73</f>
         <v>1.4199999999999999E-2</v>
       </c>
-      <c r="C74" s="173">
+      <c r="C74" s="130">
         <f>C66+C73</f>
         <v>-0.1855</v>
       </c>
-      <c r="D74" s="173">
+      <c r="D74" s="130">
         <f>D66+D73 + D72</f>
         <v>-3.8000000000000006E-2</v>
       </c>
-      <c r="E74" s="173">
+      <c r="E74" s="130">
         <f>E66+E73+E72</f>
         <v>-1.6E-2</v>
       </c>
-      <c r="F74" s="173">
+      <c r="F74" s="130">
         <f>F66+F73 + F72</f>
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="G74" s="173">
+      <c r="G74" s="130">
         <f>G66+G73+G72</f>
         <v>2.8000000000000004E-3</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="173"/>
-      <c r="C75" s="173"/>
-      <c r="D75" s="173"/>
-      <c r="E75" s="173"/>
-      <c r="F75" s="173"/>
-      <c r="G75" s="173"/>
+      <c r="B75" s="130"/>
+      <c r="C75" s="130"/>
+      <c r="D75" s="130"/>
+      <c r="E75" s="130"/>
+      <c r="F75" s="130"/>
+      <c r="G75" s="130"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
@@ -8301,30 +8538,30 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>116</v>
-      </c>
-      <c r="B77" s="173">
+        <v>104</v>
+      </c>
+      <c r="B77" s="130">
         <v>2.6100000000000002E-2</v>
       </c>
-      <c r="C77" s="173">
+      <c r="C77" s="130">
         <v>0.03</v>
       </c>
-      <c r="D77" s="173">
+      <c r="D77" s="130">
         <v>2.4E-2</v>
       </c>
-      <c r="E77" s="173">
+      <c r="E77" s="130">
         <v>1.9400000000000001E-2</v>
       </c>
-      <c r="F77" s="173">
+      <c r="F77" s="130">
         <v>2.6100000000000002E-2</v>
       </c>
-      <c r="G77" s="173">
+      <c r="G77" s="130">
         <v>2.2599999999999999E-2</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -8344,7 +8581,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D79">
         <v>0.22</v>
@@ -8361,7 +8598,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -8377,86 +8614,86 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="175" t="s">
-        <v>129</v>
+      <c r="A82" s="132" t="s">
+        <v>117</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="175" t="s">
-        <v>130</v>
-      </c>
-      <c r="D83" s="173">
+      <c r="A83" s="132" t="s">
+        <v>118</v>
+      </c>
+      <c r="D83" s="130">
         <f>D80*$B82</f>
         <v>0</v>
       </c>
-      <c r="E83" s="173">
+      <c r="E83" s="130">
         <f>E80*$B82</f>
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="F83" s="173">
+      <c r="F83" s="130">
         <f>F80*$B82</f>
         <v>0</v>
       </c>
-      <c r="G83" s="173">
+      <c r="G83" s="130">
         <f>G80*$B82</f>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>126</v>
-      </c>
-      <c r="B84" s="174">
+        <v>114</v>
+      </c>
+      <c r="B84" s="131">
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="C84" s="174">
+      <c r="C84" s="131">
         <v>-0.24</v>
       </c>
-      <c r="D84" s="173">
+      <c r="D84" s="130">
         <f>B84*$D78+C84*$D79</f>
         <v>-5.8799999999999998E-2</v>
       </c>
-      <c r="E84" s="173">
+      <c r="E84" s="130">
         <f>$B84*$E78</f>
         <v>-5.4000000000000003E-3</v>
       </c>
-      <c r="F84" s="173">
+      <c r="F84" s="130">
         <f>$B84*$F78</f>
         <v>0</v>
       </c>
-      <c r="G84" s="173">
+      <c r="G84" s="130">
         <f>$B84*$G78</f>
         <v>-7.8000000000000005E-3</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>125</v>
-      </c>
-      <c r="B85" s="173">
+        <v>113</v>
+      </c>
+      <c r="B85" s="130">
         <f>B77+B84</f>
         <v>2.01E-2</v>
       </c>
-      <c r="C85" s="173">
+      <c r="C85" s="130">
         <f>C77+C84</f>
         <v>-0.21</v>
       </c>
-      <c r="D85" s="173">
+      <c r="D85" s="130">
         <f>D77+D84 + D83</f>
         <v>-3.4799999999999998E-2</v>
       </c>
-      <c r="E85" s="173">
+      <c r="E85" s="130">
         <f>E77+E84+E83</f>
         <v>-1.1000000000000001E-2</v>
       </c>
-      <c r="F85" s="173">
+      <c r="F85" s="130">
         <f>F77+F84 + F83</f>
         <v>2.6100000000000002E-2</v>
       </c>
-      <c r="G85" s="173">
+      <c r="G85" s="130">
         <f>G77+G84+G83</f>
         <v>1.4799999999999997E-2</v>
       </c>
@@ -8471,8 +8708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D776E906-2045-45B0-8F6B-944D8082224B}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8499,89 +8736,89 @@
     </row>
     <row r="2" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
-      <c r="B2" s="131" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
+      <c r="B2" s="151" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
       <c r="M2" s="27"/>
       <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
-      <c r="B3" s="178"/>
-      <c r="C3" s="179" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="179"/>
-      <c r="I3" s="179"/>
-      <c r="J3" s="179"/>
-      <c r="K3" s="179"/>
-      <c r="L3" s="179"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="138" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
       <c r="M3" s="27"/>
       <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="30"/>
-      <c r="C4" s="133" t="s">
+      <c r="C4" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="134"/>
-      <c r="E4" s="133" t="s">
+      <c r="D4" s="149"/>
+      <c r="E4" s="148" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="134"/>
-      <c r="G4" s="133" t="s">
+      <c r="F4" s="149"/>
+      <c r="G4" s="148" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="134"/>
-      <c r="I4" s="133" t="s">
+      <c r="H4" s="149"/>
+      <c r="I4" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="134"/>
-      <c r="K4" s="133" t="s">
+      <c r="J4" s="149"/>
+      <c r="K4" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="129"/>
+      <c r="L4" s="136"/>
       <c r="M4" s="27"/>
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
       <c r="B5" s="30"/>
-      <c r="C5" s="129" t="s">
+      <c r="C5" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="134"/>
-      <c r="E5" s="135" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" s="136"/>
-      <c r="G5" s="137" t="s">
+      <c r="D5" s="149"/>
+      <c r="E5" s="144" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="143"/>
+      <c r="G5" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="136"/>
-      <c r="I5" s="135" t="s">
-        <v>137</v>
-      </c>
-      <c r="J5" s="136"/>
-      <c r="K5" s="137" t="s">
-        <v>138</v>
-      </c>
-      <c r="L5" s="137"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="144" t="s">
+        <v>125</v>
+      </c>
+      <c r="J5" s="143"/>
+      <c r="K5" s="142" t="s">
+        <v>126</v>
+      </c>
+      <c r="L5" s="142"/>
       <c r="M5" s="27"/>
       <c r="N5" s="7"/>
     </row>
@@ -8632,7 +8869,7 @@
       <c r="D7" s="46">
         <v>6.1777919529046397E-4</v>
       </c>
-      <c r="E7" s="169">
+      <c r="E7" s="127">
         <v>0.69800043416246649</v>
       </c>
       <c r="F7" s="46">
@@ -8662,7 +8899,7 @@
     <row r="8" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="24" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C8" s="57"/>
       <c r="D8" s="47"/>
@@ -8718,7 +8955,7 @@
     <row r="10" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="24" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C10" s="60"/>
       <c r="D10" s="48"/>
@@ -8784,57 +9021,57 @@
       <c r="B12" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="138">
+      <c r="C12" s="145">
         <v>38</v>
       </c>
-      <c r="D12" s="139"/>
-      <c r="E12" s="140">
+      <c r="D12" s="146"/>
+      <c r="E12" s="147">
         <v>38</v>
       </c>
-      <c r="F12" s="139"/>
-      <c r="G12" s="138">
+      <c r="F12" s="146"/>
+      <c r="G12" s="145">
         <v>38</v>
       </c>
-      <c r="H12" s="139"/>
-      <c r="I12" s="140">
+      <c r="H12" s="146"/>
+      <c r="I12" s="147">
         <v>38</v>
       </c>
-      <c r="J12" s="139"/>
-      <c r="K12" s="138">
+      <c r="J12" s="146"/>
+      <c r="K12" s="145">
         <v>38</v>
       </c>
-      <c r="L12" s="138"/>
+      <c r="L12" s="145"/>
       <c r="M12" s="27"/>
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="141">
+        <v>97</v>
+      </c>
+      <c r="C13" s="139">
         <v>0.28109520799999999</v>
       </c>
-      <c r="D13" s="142"/>
-      <c r="E13" s="143">
+      <c r="D13" s="140"/>
+      <c r="E13" s="141">
         <v>0.38214216899999998</v>
       </c>
-      <c r="F13" s="142"/>
-      <c r="G13" s="141">
+      <c r="F13" s="140"/>
+      <c r="G13" s="139">
         <f>O13</f>
         <v>0.78926516416204306</v>
       </c>
-      <c r="H13" s="142"/>
-      <c r="I13" s="141">
+      <c r="H13" s="140"/>
+      <c r="I13" s="139">
         <f>P13</f>
         <v>0.87969758814644494</v>
       </c>
-      <c r="J13" s="142"/>
-      <c r="K13" s="141">
+      <c r="J13" s="140"/>
+      <c r="K13" s="139">
         <f>Q13</f>
         <v>0.87537377531821592</v>
       </c>
-      <c r="L13" s="141"/>
+      <c r="L13" s="139"/>
       <c r="M13" s="27"/>
       <c r="N13" s="7"/>
       <c r="O13">
@@ -8849,36 +9086,36 @@
     </row>
     <row r="14" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
-      <c r="B14" s="131" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="132"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="132"/>
-      <c r="K14" s="132"/>
-      <c r="L14" s="132"/>
+      <c r="B14" s="151" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="152"/>
       <c r="M14" s="27"/>
     </row>
     <row r="15" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
-      <c r="B15" s="178"/>
-      <c r="C15" s="179" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="179"/>
-      <c r="E15" s="179"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="179"/>
-      <c r="H15" s="179"/>
-      <c r="I15" s="179"/>
-      <c r="J15" s="179"/>
-      <c r="K15" s="179"/>
-      <c r="L15" s="179"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="138" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="138"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="138"/>
       <c r="M15" s="27"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -8888,18 +9125,18 @@
       <c r="D16" s="24"/>
       <c r="E16" s="17"/>
       <c r="F16" s="52"/>
-      <c r="G16" s="133" t="s">
+      <c r="G16" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="134"/>
-      <c r="I16" s="133" t="s">
+      <c r="H16" s="149"/>
+      <c r="I16" s="148" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="134"/>
-      <c r="K16" s="133" t="s">
+      <c r="J16" s="149"/>
+      <c r="K16" s="148" t="s">
         <v>43</v>
       </c>
-      <c r="L16" s="129"/>
+      <c r="L16" s="136"/>
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="1:17" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8909,18 +9146,18 @@
       <c r="D17" s="24"/>
       <c r="E17" s="17"/>
       <c r="F17" s="52"/>
-      <c r="G17" s="144" t="s">
+      <c r="G17" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="134"/>
-      <c r="I17" s="135" t="s">
-        <v>139</v>
-      </c>
-      <c r="J17" s="136"/>
-      <c r="K17" s="137" t="s">
-        <v>140</v>
-      </c>
-      <c r="L17" s="137"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="144" t="s">
+        <v>127</v>
+      </c>
+      <c r="J17" s="143"/>
+      <c r="K17" s="142" t="s">
+        <v>128</v>
+      </c>
+      <c r="L17" s="142"/>
       <c r="M17" s="27"/>
     </row>
     <row r="18" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -8928,7 +9165,7 @@
       <c r="B18" s="32"/>
       <c r="C18" s="82"/>
       <c r="D18" s="82"/>
-      <c r="E18" s="93"/>
+      <c r="E18" s="92"/>
       <c r="F18" s="53"/>
       <c r="G18" s="82" t="s">
         <v>47</v>
@@ -9032,7 +9269,7 @@
     <row r="22" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="24" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
@@ -9092,44 +9329,44 @@
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="54"/>
-      <c r="G24" s="138">
+      <c r="G24" s="145">
         <v>38</v>
       </c>
-      <c r="H24" s="139"/>
-      <c r="I24" s="140">
+      <c r="H24" s="146"/>
+      <c r="I24" s="147">
         <v>38</v>
       </c>
-      <c r="J24" s="139"/>
-      <c r="K24" s="138">
+      <c r="J24" s="146"/>
+      <c r="K24" s="145">
         <v>38</v>
       </c>
-      <c r="L24" s="138"/>
+      <c r="L24" s="145"/>
       <c r="M24" s="27"/>
     </row>
     <row r="25" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="82" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C25" s="76"/>
       <c r="D25" s="76"/>
       <c r="E25" s="76"/>
       <c r="F25" s="55"/>
-      <c r="G25" s="143">
+      <c r="G25" s="141">
         <f>O25</f>
         <v>0.4891966309333044</v>
       </c>
-      <c r="H25" s="142"/>
-      <c r="I25" s="143">
+      <c r="H25" s="140"/>
+      <c r="I25" s="141">
         <f>P25</f>
         <v>0.6264136825064347</v>
       </c>
-      <c r="J25" s="142"/>
-      <c r="K25" s="143">
+      <c r="J25" s="140"/>
+      <c r="K25" s="141">
         <f>Q25</f>
         <v>0.6036198370405732</v>
       </c>
-      <c r="L25" s="141"/>
+      <c r="L25" s="139"/>
       <c r="M25" s="27"/>
       <c r="O25">
         <v>0.4891966309333044</v>
@@ -9229,12 +9466,12 @@
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="24"/>
-      <c r="G37" s="137"/>
-      <c r="H37" s="136"/>
-      <c r="I37" s="135"/>
-      <c r="J37" s="136"/>
-      <c r="K37" s="137"/>
-      <c r="L37" s="137"/>
+      <c r="G37" s="142"/>
+      <c r="H37" s="143"/>
+      <c r="I37" s="144"/>
+      <c r="J37" s="143"/>
+      <c r="K37" s="142"/>
+      <c r="L37" s="142"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="24"/>
@@ -9333,23 +9570,52 @@
       <c r="L48" s="19"/>
     </row>
     <row r="49" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G49" s="138"/>
-      <c r="H49" s="139"/>
-      <c r="I49" s="140"/>
-      <c r="J49" s="139"/>
-      <c r="K49" s="138"/>
-      <c r="L49" s="138"/>
+      <c r="G49" s="145"/>
+      <c r="H49" s="146"/>
+      <c r="I49" s="147"/>
+      <c r="J49" s="146"/>
+      <c r="K49" s="145"/>
+      <c r="L49" s="145"/>
     </row>
     <row r="50" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G50" s="141"/>
-      <c r="H50" s="142"/>
-      <c r="I50" s="143"/>
-      <c r="J50" s="142"/>
-      <c r="K50" s="141"/>
-      <c r="L50" s="141"/>
+      <c r="G50" s="139"/>
+      <c r="H50" s="140"/>
+      <c r="I50" s="141"/>
+      <c r="J50" s="140"/>
+      <c r="K50" s="139"/>
+      <c r="L50" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
     <mergeCell ref="C15:L15"/>
     <mergeCell ref="G50:H50"/>
     <mergeCell ref="I50:J50"/>
@@ -9366,35 +9632,6 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="K25:L25"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9437,15 +9674,15 @@
     </row>
     <row r="2" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
-      <c r="B2" s="131" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
+      <c r="B2" s="151" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
       <c r="K2" s="27"/>
@@ -9456,18 +9693,18 @@
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="31"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="145"/>
-      <c r="E3" s="133" t="s">
+      <c r="D3" s="161"/>
+      <c r="E3" s="148" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="145"/>
-      <c r="G3" s="148" t="s">
-        <v>97</v>
-      </c>
-      <c r="H3" s="133"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="164" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="148"/>
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
@@ -9478,18 +9715,18 @@
     <row r="4" spans="1:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="31"/>
-      <c r="C4" s="137" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="145"/>
-      <c r="E4" s="146" t="s">
-        <v>143</v>
-      </c>
-      <c r="F4" s="147"/>
-      <c r="G4" s="146" t="s">
-        <v>144</v>
-      </c>
-      <c r="H4" s="137"/>
+      <c r="C4" s="142" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="161"/>
+      <c r="E4" s="162" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="163"/>
+      <c r="G4" s="162" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="142"/>
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
       <c r="K4" s="27"/>
@@ -9536,13 +9773,13 @@
       <c r="D6" s="36">
         <v>1.7432070603919606E-7</v>
       </c>
-      <c r="E6" s="109">
+      <c r="E6" s="106">
         <v>0.90636663580307086</v>
       </c>
       <c r="F6" s="36">
         <v>1.4255593975744735E-5</v>
       </c>
-      <c r="G6" s="113">
+      <c r="G6" s="110">
         <v>0.70307529530927959</v>
       </c>
       <c r="H6" s="25">
@@ -9558,17 +9795,17 @@
     <row r="7" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="24" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C7" s="57"/>
       <c r="D7" s="37"/>
-      <c r="E7" s="110">
+      <c r="E7" s="107">
         <v>-1.5340984918496784E-2</v>
       </c>
       <c r="F7" s="36">
         <v>8.1115163118256339E-2</v>
       </c>
-      <c r="G7" s="109">
+      <c r="G7" s="106">
         <v>-2.506416345296374E-2</v>
       </c>
       <c r="H7" s="25">
@@ -9584,20 +9821,20 @@
     <row r="8" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="24" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C8" s="60"/>
       <c r="D8" s="38"/>
-      <c r="E8" s="176">
+      <c r="E8" s="133">
         <v>-3.0178866454237913E-2</v>
       </c>
       <c r="F8" s="38">
         <v>1.689119830070325E-3</v>
       </c>
-      <c r="G8" s="176">
+      <c r="G8" s="133">
         <v>-3.7705078799835853E-2</v>
       </c>
-      <c r="H8" s="177">
+      <c r="H8" s="134">
         <v>8.9514470161445865E-4</v>
       </c>
       <c r="I8" s="27"/>
@@ -9618,13 +9855,13 @@
       <c r="D9" s="36">
         <v>0.68929987415507576</v>
       </c>
-      <c r="E9" s="110">
+      <c r="E9" s="107">
         <v>5.641459210192371E-3</v>
       </c>
       <c r="F9" s="36">
         <v>4.4850643832523608E-2</v>
       </c>
-      <c r="G9" s="109">
+      <c r="G9" s="106">
         <v>9.8123917831466727E-3</v>
       </c>
       <c r="H9" s="25">
@@ -9642,18 +9879,18 @@
       <c r="B10" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="138">
+      <c r="C10" s="145">
         <v>31</v>
       </c>
-      <c r="D10" s="150"/>
-      <c r="E10" s="138">
+      <c r="D10" s="157"/>
+      <c r="E10" s="145">
         <v>32</v>
       </c>
-      <c r="F10" s="150"/>
-      <c r="G10" s="154">
+      <c r="F10" s="157"/>
+      <c r="G10" s="160">
         <v>21</v>
       </c>
-      <c r="H10" s="138"/>
+      <c r="H10" s="145"/>
       <c r="I10" s="27"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
@@ -9664,23 +9901,23 @@
     <row r="11" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="141">
+        <v>97</v>
+      </c>
+      <c r="C11" s="139">
         <f>L11</f>
         <v>0.61571897814696952</v>
       </c>
-      <c r="D11" s="151"/>
+      <c r="D11" s="158"/>
       <c r="E11" s="159">
         <f>M11</f>
         <v>0.7417219375190941</v>
       </c>
-      <c r="F11" s="151"/>
+      <c r="F11" s="158"/>
       <c r="G11" s="159">
         <f>N11</f>
         <v>0.80466929780955043</v>
       </c>
-      <c r="H11" s="141"/>
+      <c r="H11" s="139"/>
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
       <c r="K11" s="27"/>
@@ -9696,15 +9933,15 @@
     </row>
     <row r="12" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
-      <c r="B12" s="170" t="s">
-        <v>142</v>
-      </c>
-      <c r="C12" s="155"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="155"/>
+      <c r="B12" s="153" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="154"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
       <c r="K12" s="27"/>
@@ -9715,18 +9952,18 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="30"/>
-      <c r="C13" s="133" t="s">
+      <c r="C13" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="145"/>
-      <c r="E13" s="133" t="s">
+      <c r="D13" s="161"/>
+      <c r="E13" s="148" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="145"/>
-      <c r="G13" s="148" t="s">
-        <v>97</v>
-      </c>
-      <c r="H13" s="133"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="164" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="148"/>
       <c r="I13" s="27"/>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
@@ -9737,18 +9974,18 @@
     <row r="14" spans="1:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="30"/>
-      <c r="C14" s="137" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="145"/>
-      <c r="E14" s="146" t="s">
-        <v>143</v>
-      </c>
-      <c r="F14" s="147"/>
-      <c r="G14" s="146" t="s">
-        <v>144</v>
-      </c>
-      <c r="H14" s="137"/>
+      <c r="C14" s="142" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="161"/>
+      <c r="E14" s="162" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="163"/>
+      <c r="G14" s="162" t="s">
+        <v>132</v>
+      </c>
+      <c r="H14" s="142"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
@@ -9795,13 +10032,13 @@
       <c r="D16" s="37">
         <v>5.3734674916031573E-2</v>
       </c>
-      <c r="E16" s="112">
+      <c r="E16" s="109">
         <v>0.48384683875815065</v>
       </c>
       <c r="F16" s="37">
         <v>0.10963505431887881</v>
       </c>
-      <c r="G16" s="112">
+      <c r="G16" s="109">
         <v>0.77949883097977657</v>
       </c>
       <c r="H16" s="19">
@@ -9817,17 +10054,17 @@
     <row r="17" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="24" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C17" s="57"/>
       <c r="D17" s="37"/>
-      <c r="E17" s="112">
+      <c r="E17" s="109">
         <v>8.0434635925066885E-3</v>
       </c>
       <c r="F17" s="37">
         <v>0.58188700071576538</v>
       </c>
-      <c r="G17" s="112">
+      <c r="G17" s="109">
         <v>1.8504887995216979E-2</v>
       </c>
       <c r="H17" s="19">
@@ -9843,20 +10080,20 @@
     <row r="18" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="24" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C18" s="60"/>
       <c r="D18" s="38"/>
-      <c r="E18" s="111">
+      <c r="E18" s="108">
         <v>-9.4615194615974476E-3</v>
       </c>
       <c r="F18" s="38">
         <v>0.52673033250354395</v>
       </c>
-      <c r="G18" s="111">
+      <c r="G18" s="108">
         <v>1.8419348913026349E-3</v>
       </c>
-      <c r="H18" s="177">
+      <c r="H18" s="134">
         <v>0.91298137067565788</v>
       </c>
       <c r="I18" s="27"/>
@@ -9877,13 +10114,13 @@
       <c r="D19" s="37">
         <v>0.96786351519638458</v>
       </c>
-      <c r="E19" s="112">
+      <c r="E19" s="109">
         <v>-1.2045901295428795E-5</v>
       </c>
       <c r="F19" s="37">
         <v>0.99791681868105719</v>
       </c>
-      <c r="G19" s="112">
+      <c r="G19" s="109">
         <v>-6.4358278252889334E-3</v>
       </c>
       <c r="H19" s="19">
@@ -9901,18 +10138,18 @@
       <c r="B20" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="138">
+      <c r="C20" s="145">
         <v>31</v>
       </c>
-      <c r="D20" s="150"/>
-      <c r="E20" s="138">
+      <c r="D20" s="157"/>
+      <c r="E20" s="145">
         <v>32</v>
       </c>
-      <c r="F20" s="150"/>
-      <c r="G20" s="154">
+      <c r="F20" s="157"/>
+      <c r="G20" s="160">
         <v>21</v>
       </c>
-      <c r="H20" s="138"/>
+      <c r="H20" s="145"/>
       <c r="I20" s="27"/>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
@@ -9923,23 +10160,23 @@
     <row r="21" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="141">
+        <v>97</v>
+      </c>
+      <c r="C21" s="139">
         <f>L21</f>
         <v>0.12235556050138582</v>
       </c>
-      <c r="D21" s="151"/>
+      <c r="D21" s="158"/>
       <c r="E21" s="159">
         <f>M21</f>
         <v>0.15210459418202643</v>
       </c>
-      <c r="F21" s="151"/>
+      <c r="F21" s="158"/>
       <c r="G21" s="159">
         <f>N21</f>
         <v>0.26204031407125944</v>
       </c>
-      <c r="H21" s="141"/>
+      <c r="H21" s="139"/>
       <c r="I21" s="27"/>
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
@@ -9955,28 +10192,28 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
-      <c r="B22" s="180" t="s">
+      <c r="B22" s="155" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="180"/>
-      <c r="D22" s="180"/>
-      <c r="E22" s="180"/>
-      <c r="F22" s="180"/>
-      <c r="G22" s="180"/>
-      <c r="H22" s="180"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="155"/>
       <c r="I22" s="27"/>
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
     </row>
     <row r="23" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
-      <c r="B23" s="181"/>
-      <c r="C23" s="181"/>
-      <c r="D23" s="181"/>
-      <c r="E23" s="181"/>
-      <c r="F23" s="181"/>
-      <c r="G23" s="181"/>
-      <c r="H23" s="181"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
+      <c r="H23" s="156"/>
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
       <c r="K23" s="27"/>
@@ -10009,6 +10246,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B22:H23"/>
@@ -10025,17 +10273,6 @@
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -10049,7 +10286,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10079,86 +10316,86 @@
     </row>
     <row r="2" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
-      <c r="B2" s="131" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
+      <c r="B2" s="151" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="31"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="145"/>
-      <c r="E3" s="133" t="s">
+      <c r="D3" s="161"/>
+      <c r="E3" s="148" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="145"/>
-      <c r="G3" s="148" t="s">
+      <c r="F3" s="161"/>
+      <c r="G3" s="164" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="145"/>
-      <c r="I3" s="133" t="s">
+      <c r="H3" s="161"/>
+      <c r="I3" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="129"/>
+      <c r="J3" s="136"/>
       <c r="K3" s="27"/>
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:16" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="31"/>
-      <c r="C4" s="129" t="s">
+      <c r="C4" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="145"/>
-      <c r="E4" s="146" t="s">
-        <v>151</v>
-      </c>
-      <c r="F4" s="147"/>
-      <c r="G4" s="146" t="s">
-        <v>149</v>
-      </c>
-      <c r="H4" s="145"/>
-      <c r="I4" s="137" t="s">
-        <v>150</v>
-      </c>
-      <c r="J4" s="129"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="162" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="163"/>
+      <c r="G4" s="162" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" s="161"/>
+      <c r="I4" s="142" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" s="136"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
       <c r="B5" s="32"/>
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="115" t="s">
         <v>47</v>
       </c>
       <c r="D5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="118" t="s">
+      <c r="E5" s="115" t="s">
         <v>47</v>
       </c>
       <c r="F5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="171" t="s">
+      <c r="G5" s="128" t="s">
         <v>47</v>
       </c>
       <c r="H5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="118" t="s">
+      <c r="I5" s="115" t="s">
         <v>47</v>
       </c>
       <c r="J5" s="33" t="s">
@@ -10202,7 +10439,7 @@
     <row r="7" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="24" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C7" s="57"/>
       <c r="D7" s="37"/>
@@ -10222,7 +10459,7 @@
     <row r="8" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="24" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C8" s="60"/>
       <c r="D8" s="38"/>
@@ -10242,7 +10479,7 @@
     <row r="9" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="24" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C9" s="60"/>
       <c r="D9" s="38"/>
@@ -10262,7 +10499,7 @@
     <row r="10" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="24" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C10" s="60"/>
       <c r="D10" s="38"/>
@@ -10316,50 +10553,50 @@
       <c r="B12" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="138">
+      <c r="C12" s="145">
         <v>38</v>
       </c>
-      <c r="D12" s="150"/>
-      <c r="E12" s="154">
+      <c r="D12" s="157"/>
+      <c r="E12" s="160">
         <v>38</v>
       </c>
-      <c r="F12" s="150"/>
-      <c r="G12" s="154">
+      <c r="F12" s="157"/>
+      <c r="G12" s="160">
         <v>38</v>
       </c>
-      <c r="H12" s="150"/>
-      <c r="I12" s="138">
+      <c r="H12" s="157"/>
+      <c r="I12" s="145">
         <v>38</v>
       </c>
-      <c r="J12" s="138"/>
+      <c r="J12" s="145"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
-      <c r="B13" s="118" t="s">
+      <c r="B13" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="141">
+      <c r="C13" s="139">
         <f>M13</f>
         <v>0.3032675605879514</v>
       </c>
-      <c r="D13" s="151"/>
+      <c r="D13" s="158"/>
       <c r="E13" s="159">
         <f>N13</f>
         <v>0.43858138193669671</v>
       </c>
-      <c r="F13" s="151"/>
+      <c r="F13" s="158"/>
       <c r="G13" s="159">
         <f>O13</f>
         <v>0.44569213309189742</v>
       </c>
-      <c r="H13" s="151"/>
-      <c r="I13" s="141">
+      <c r="H13" s="158"/>
+      <c r="I13" s="139">
         <f>P13</f>
         <v>0.45380565810102486</v>
       </c>
-      <c r="J13" s="141"/>
+      <c r="J13" s="139"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13">
@@ -10377,15 +10614,15 @@
     </row>
     <row r="14" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
-      <c r="B14" s="160" t="s">
+      <c r="B14" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="160"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="160"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="165"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="165"/>
       <c r="I14" s="27"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -10461,11 +10698,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B2:J2"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -10479,6 +10711,11 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -10503,747 +10740,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C89BA0-416B-417C-AA31-30FDBB55A55B}">
-  <dimension ref="A1:Q25"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" customWidth="1"/>
-    <col min="4" max="10" width="9.7109375" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="27"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-    </row>
-    <row r="2" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="131" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="133" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="145"/>
-      <c r="E3" s="133" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="145"/>
-      <c r="G3" s="148" t="s">
-        <v>97</v>
-      </c>
-      <c r="H3" s="149"/>
-      <c r="I3" s="133" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="129"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-    </row>
-    <row r="4" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="137" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="145"/>
-      <c r="E4" s="146" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="147"/>
-      <c r="G4" s="146" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="147"/>
-      <c r="I4" s="146" t="s">
-        <v>95</v>
-      </c>
-      <c r="J4" s="129"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="118" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="115" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-    </row>
-    <row r="6" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="73">
-        <v>1.1985710435027721</v>
-      </c>
-      <c r="D6" s="36">
-        <v>1.7432070603919606E-7</v>
-      </c>
-      <c r="E6" s="109">
-        <v>0.91624794461780756</v>
-      </c>
-      <c r="F6" s="36">
-        <v>1.2869297199360935E-5</v>
-      </c>
-      <c r="G6" s="113">
-        <v>0.69960251025962072</v>
-      </c>
-      <c r="H6" s="36">
-        <v>3.9545306886094363E-3</v>
-      </c>
-      <c r="I6" s="116">
-        <v>0.77314979187053146</v>
-      </c>
-      <c r="J6" s="117">
-        <v>5.89162216186539E-4</v>
-      </c>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-    </row>
-    <row r="7" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="109">
-        <v>-2.441733370653024E-2</v>
-      </c>
-      <c r="F7" s="36">
-        <v>2.4277773113505386E-3</v>
-      </c>
-      <c r="G7" s="109">
-        <v>-3.2731435922535509E-2</v>
-      </c>
-      <c r="H7" s="36">
-        <v>9.0582967642711075E-4</v>
-      </c>
-      <c r="I7" s="114"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-    </row>
-    <row r="8" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="113">
-        <v>-2.5800857032040939E-2</v>
-      </c>
-      <c r="J8" s="25">
-        <v>2.7208136610027164E-3</v>
-      </c>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-    </row>
-    <row r="9" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="65">
-        <v>1.1032746473047938E-3</v>
-      </c>
-      <c r="D9" s="36">
-        <v>0.68929987415507576</v>
-      </c>
-      <c r="E9" s="110">
-        <v>5.1700930751561831E-3</v>
-      </c>
-      <c r="F9" s="36">
-        <v>6.1154618589393979E-2</v>
-      </c>
-      <c r="G9" s="109">
-        <v>9.8366455164323029E-3</v>
-      </c>
-      <c r="H9" s="36">
-        <v>1.1844059003509582E-2</v>
-      </c>
-      <c r="I9" s="114">
-        <v>6.2906788237488123E-3</v>
-      </c>
-      <c r="J9" s="25">
-        <v>3.5064944989601984E-2</v>
-      </c>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-    </row>
-    <row r="10" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="138">
-        <v>31</v>
-      </c>
-      <c r="D10" s="150"/>
-      <c r="E10" s="138">
-        <v>32</v>
-      </c>
-      <c r="F10" s="150"/>
-      <c r="G10" s="154">
-        <v>21</v>
-      </c>
-      <c r="H10" s="150"/>
-      <c r="I10" s="138">
-        <v>33</v>
-      </c>
-      <c r="J10" s="138"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-    </row>
-    <row r="11" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="118" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="141">
-        <f>N11</f>
-        <v>0.61571897814696952</v>
-      </c>
-      <c r="D11" s="151"/>
-      <c r="E11" s="159">
-        <f>O11</f>
-        <v>0.72486496224438524</v>
-      </c>
-      <c r="F11" s="151"/>
-      <c r="G11" s="159">
-        <f>P11</f>
-        <v>0.79096913931575263</v>
-      </c>
-      <c r="H11" s="151"/>
-      <c r="I11" s="141">
-        <f>Q11</f>
-        <v>0.72277433456881901</v>
-      </c>
-      <c r="J11" s="141"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11">
-        <v>0.61571897814696952</v>
-      </c>
-      <c r="O11">
-        <v>0.72486496224438524</v>
-      </c>
-      <c r="P11">
-        <v>0.79096913931575263</v>
-      </c>
-      <c r="Q11">
-        <v>0.72277433456881901</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="170" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="155"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="155"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="133" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="145"/>
-      <c r="E13" s="133" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="145"/>
-      <c r="G13" s="148" t="s">
-        <v>97</v>
-      </c>
-      <c r="H13" s="149"/>
-      <c r="I13" s="133" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="129"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-    </row>
-    <row r="14" spans="1:17" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="129" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="145"/>
-      <c r="E14" s="146" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="147"/>
-      <c r="G14" s="146" t="s">
-        <v>98</v>
-      </c>
-      <c r="H14" s="147"/>
-      <c r="I14" s="146" t="s">
-        <v>95</v>
-      </c>
-      <c r="J14" s="129"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-    </row>
-    <row r="15" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="118" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="115" t="s">
-        <v>47</v>
-      </c>
-      <c r="J15" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-    </row>
-    <row r="16" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="57">
-        <v>0.50268652081425647</v>
-      </c>
-      <c r="D16" s="37">
-        <v>5.3734674916031573E-2</v>
-      </c>
-      <c r="E16" s="112">
-        <v>0.37350267384449576</v>
-      </c>
-      <c r="F16" s="37">
-        <v>0.20406338826988368</v>
-      </c>
-      <c r="G16" s="112">
-        <v>0.55232925117860721</v>
-      </c>
-      <c r="H16" s="37">
-        <v>0.15238834234927567</v>
-      </c>
-      <c r="I16" s="112">
-        <v>0.37749099350366305</v>
-      </c>
-      <c r="J16" s="19">
-        <v>0.26534093475150033</v>
-      </c>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-    </row>
-    <row r="17" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="112">
-        <v>-1.1172748929903331E-2</v>
-      </c>
-      <c r="F17" s="37">
-        <v>0.36481327385789131</v>
-      </c>
-      <c r="G17" s="112">
-        <v>-4.2366440390252105E-3</v>
-      </c>
-      <c r="H17" s="37">
-        <v>0.77197944038505806</v>
-      </c>
-      <c r="I17" s="112"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-    </row>
-    <row r="18" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="112">
-        <v>-7.5928315494307565E-3</v>
-      </c>
-      <c r="J18" s="19">
-        <v>0.56552206628954749</v>
-      </c>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-    </row>
-    <row r="19" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="57">
-        <v>-1.5785462754268242E-4</v>
-      </c>
-      <c r="D19" s="37">
-        <v>0.96786351519638458</v>
-      </c>
-      <c r="E19" s="112">
-        <v>1.7030177258435439E-3</v>
-      </c>
-      <c r="F19" s="37">
-        <v>0.70082957419222935</v>
-      </c>
-      <c r="G19" s="112">
-        <v>-2.222274387913272E-3</v>
-      </c>
-      <c r="H19" s="37">
-        <v>0.72121943519152154</v>
-      </c>
-      <c r="I19" s="112">
-        <v>1.3687259058729304E-3</v>
-      </c>
-      <c r="J19" s="19">
-        <v>0.77422976383740183</v>
-      </c>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-    </row>
-    <row r="20" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="138">
-        <v>31</v>
-      </c>
-      <c r="D20" s="150"/>
-      <c r="E20" s="138">
-        <v>32</v>
-      </c>
-      <c r="F20" s="150"/>
-      <c r="G20" s="154">
-        <v>21</v>
-      </c>
-      <c r="H20" s="150"/>
-      <c r="I20" s="138">
-        <v>33</v>
-      </c>
-      <c r="J20" s="138"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-    </row>
-    <row r="21" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="118" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="141">
-        <f>N21</f>
-        <v>0.12235556050138582</v>
-      </c>
-      <c r="D21" s="151"/>
-      <c r="E21" s="159">
-        <f>O21</f>
-        <v>0.14817255106920282</v>
-      </c>
-      <c r="F21" s="151"/>
-      <c r="G21" s="159">
-        <f>P21</f>
-        <v>0.20221725039002678</v>
-      </c>
-      <c r="H21" s="151"/>
-      <c r="I21" s="159">
-        <f>Q21</f>
-        <v>0.13282978602147921</v>
-      </c>
-      <c r="J21" s="141"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21">
-        <v>0.12235556050138582</v>
-      </c>
-      <c r="O21">
-        <v>0.14817255106920282</v>
-      </c>
-      <c r="P21">
-        <v>0.20221725039002678</v>
-      </c>
-      <c r="Q21">
-        <v>0.13282978602147921</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="156" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="156"/>
-      <c r="D22" s="156"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="156"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-    </row>
-    <row r="23" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="157"/>
-      <c r="C23" s="157"/>
-      <c r="D23" s="157"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="157"/>
-      <c r="I23" s="157"/>
-      <c r="J23" s="157"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-    </row>
-  </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="B22:J23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626554E6-A927-4522-A53C-FCC47E758F2F}">
   <dimension ref="A1:I20"/>
   <sheetViews>
@@ -11271,14 +10767,14 @@
     </row>
     <row r="2" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="169" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
@@ -11305,10 +10801,10 @@
     </row>
     <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="88">
+      <c r="C4" s="87">
         <v>911042.78700000001</v>
       </c>
       <c r="D4" s="81">
@@ -11328,23 +10824,23 @@
     </row>
     <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="136" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" s="85" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84"/>
-      <c r="B6" s="84" t="s">
+    <row r="6" spans="1:9" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="83"/>
+      <c r="B6" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="91">
+      <c r="C6" s="90">
         <v>10575.165000000001</v>
       </c>
       <c r="D6" s="78">
@@ -11359,15 +10855,15 @@
       <c r="G6" s="78">
         <v>0.16712769966236934</v>
       </c>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-    </row>
-    <row r="7" spans="1:9" s="85" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="84" t="s">
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+    </row>
+    <row r="7" spans="1:9" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="83"/>
+      <c r="B7" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="91">
+      <c r="C7" s="90">
         <v>20536.884999999998</v>
       </c>
       <c r="D7" s="78">
@@ -11382,15 +10878,15 @@
       <c r="G7" s="78">
         <v>0.10409821158369439</v>
       </c>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-    </row>
-    <row r="8" spans="1:9" s="85" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="84"/>
-      <c r="B8" s="84" t="s">
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+    </row>
+    <row r="8" spans="1:9" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="83"/>
+      <c r="B8" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="91">
+      <c r="C8" s="90">
         <v>78205.404999999999</v>
       </c>
       <c r="D8" s="78">
@@ -11405,15 +10901,15 @@
       <c r="G8" s="78">
         <v>0.13502140932586429</v>
       </c>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-    </row>
-    <row r="9" spans="1:9" s="85" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="84" t="s">
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+    </row>
+    <row r="9" spans="1:9" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="83"/>
+      <c r="B9" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="91">
+      <c r="C9" s="90">
         <v>27012.205999999998</v>
       </c>
       <c r="D9" s="78">
@@ -11428,15 +10924,15 @@
       <c r="G9" s="78">
         <v>0.15719304820939101</v>
       </c>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-    </row>
-    <row r="10" spans="1:9" s="85" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="86" t="s">
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+    </row>
+    <row r="10" spans="1:9" s="84" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="83"/>
+      <c r="B10" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="92">
+      <c r="C10" s="91">
         <v>151172.64300000001</v>
       </c>
       <c r="D10" s="80">
@@ -11451,28 +10947,28 @@
       <c r="G10" s="80">
         <v>0.13822494325246396</v>
       </c>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
     </row>
     <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="129" t="s">
+      <c r="B11" s="136" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="89">
+      <c r="C12" s="88">
         <v>55086.438000000002</v>
       </c>
       <c r="D12" s="78">
@@ -11492,10 +10988,10 @@
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="89">
+      <c r="C13" s="88">
         <v>20644.454000000002</v>
       </c>
       <c r="D13" s="78">
@@ -11515,10 +11011,10 @@
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="89">
+      <c r="C14" s="88">
         <v>37217.758999999998</v>
       </c>
       <c r="D14" s="78">
@@ -11538,10 +11034,10 @@
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="89">
+      <c r="C15" s="88">
         <v>1674.1079999999999</v>
       </c>
       <c r="D15" s="78">
@@ -11561,10 +11057,10 @@
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="90">
+      <c r="C16" s="89">
         <v>7532.9889999999996</v>
       </c>
       <c r="D16" s="80">
@@ -11634,4 +11130,253 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49E93F8-6F77-4D9D-A37F-18E004A609A0}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="7" width="19.7109375" customWidth="1"/>
+    <col min="9" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="137" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" s="77" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="96"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="97" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="97" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="97" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="96"/>
+    </row>
+    <row r="4" spans="1:8" s="77" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="96"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="142" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="96"/>
+    </row>
+    <row r="5" spans="1:8" s="77" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="96"/>
+      <c r="B5" s="142" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="142"/>
+      <c r="D5" s="180">
+        <v>0.02</v>
+      </c>
+      <c r="E5" s="180">
+        <v>0.02</v>
+      </c>
+      <c r="F5" s="180">
+        <v>0.02</v>
+      </c>
+      <c r="G5" s="180">
+        <v>0.02</v>
+      </c>
+      <c r="H5" s="96"/>
+    </row>
+    <row r="6" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="172" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="119">
+        <v>1</v>
+      </c>
+      <c r="E6" s="119">
+        <v>1.2</v>
+      </c>
+      <c r="F6" s="120">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="119">
+        <v>1.3</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="169"/>
+      <c r="C7" s="124" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="125">
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="125" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="125" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="125" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="142" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="142"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="142" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="142"/>
+      <c r="D9" s="180">
+        <v>0.02</v>
+      </c>
+      <c r="E9" s="180">
+        <v>0.02</v>
+      </c>
+      <c r="F9" s="180">
+        <v>0.02</v>
+      </c>
+      <c r="G9" s="180">
+        <v>0.02</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="172" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="119">
+        <v>1</v>
+      </c>
+      <c r="E10" s="119">
+        <v>0.9</v>
+      </c>
+      <c r="F10" s="120">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="119">
+        <v>1.3</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="173"/>
+      <c r="C11" s="121" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="122">
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="122" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="122" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="122" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="181" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="171"/>
+      <c r="D12" s="126">
+        <v>0</v>
+      </c>
+      <c r="E12" s="123">
+        <v>-0.02</v>
+      </c>
+      <c r="F12" s="126">
+        <v>0</v>
+      </c>
+      <c r="G12" s="126"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:B11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/policyBrief_out/Tables_report(4).xlsx
+++ b/policyBrief_out/Tables_report(4).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BEA07F-7CE5-45A6-A6F4-6EAD2BEA4391}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C23399-D1A2-4562-AC65-36CA846B8518}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fat-tails" sheetId="10" r:id="rId1"/>
@@ -18,12 +18,15 @@
     <sheet name="TaxStr" sheetId="7" r:id="rId8"/>
     <sheet name="SimInput1_new" sheetId="15" r:id="rId9"/>
     <sheet name="SimInputs2" sheetId="8" r:id="rId10"/>
-    <sheet name="PIT_stock_real (2)" sheetId="14" r:id="rId11"/>
-    <sheet name="PIT_stock_nom" sheetId="1" r:id="rId12"/>
-    <sheet name="PIT_stock_nom (2)" sheetId="5" r:id="rId13"/>
-    <sheet name="Sales_old" sheetId="2" r:id="rId14"/>
-    <sheet name="Probs" sheetId="16" r:id="rId15"/>
-    <sheet name="Sales_real_cycle_old" sheetId="20" r:id="rId16"/>
+    <sheet name="ERC_tax_high" sheetId="21" r:id="rId11"/>
+    <sheet name="ERC_tax_hike" sheetId="22" r:id="rId12"/>
+    <sheet name="penFinance" sheetId="23" r:id="rId13"/>
+    <sheet name="PIT_stock_real (2)" sheetId="14" r:id="rId14"/>
+    <sheet name="PIT_stock_nom" sheetId="1" r:id="rId15"/>
+    <sheet name="PIT_stock_nom (2)" sheetId="5" r:id="rId16"/>
+    <sheet name="Sales_old" sheetId="2" r:id="rId17"/>
+    <sheet name="Probs" sheetId="16" r:id="rId18"/>
+    <sheet name="Sales_real_cycle_old" sheetId="20" r:id="rId19"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="159">
   <si>
     <t>Stock return</t>
   </si>
@@ -564,6 +567,52 @@
   </si>
   <si>
     <t>Assumptions on trend and cyclical growth rate of tax revenues for simulation analysis</t>
+  </si>
+  <si>
+    <t>Income tax dominant state</t>
+  </si>
+  <si>
+    <t>Sales tax dominant state</t>
+  </si>
+  <si>
+    <t>Constant growth of tax revenue</t>
+  </si>
+  <si>
+    <t>returns from normal distribution</t>
+  </si>
+  <si>
+    <t>Return from simulation</t>
+  </si>
+  <si>
+    <t>Discount rate = 7.5%</t>
+  </si>
+  <si>
+    <t>Discount rate = 6%</t>
+  </si>
+  <si>
+    <t>Fast repayment of UAAL</t>
+  </si>
+  <si>
+    <t>Slow repayment of UAAL</t>
+  </si>
+  <si>
+    <t>Notes: 
+Fast repayment of UAAL: Funding policy of 15-year level-dollar closed amortization with 5-year asset smoothing. 
+Slow repayment of UAAL: Funding policy of 30-year level-percent open amortization with 5-year asset smoothing.</t>
+  </si>
+  <si>
+    <t>Employer contribution as a percentage of tax revenue in year 1</t>
+  </si>
+  <si>
+    <t>Probability of funded ratio falling below 40 percent at any time in 30 years.</t>
+  </si>
+  <si>
+    <t>Probability of employer contribution as a percentage of total tax revenue 
+rising above twice as high as the year-1 value at any time during the 30-year simulation period</t>
+  </si>
+  <si>
+    <t>Probability of employer contribution rising more than 3 percent of total tax revenue 
+in a 2-year period at any time during the 30-year simulation period</t>
   </si>
 </sst>
 </file>
@@ -645,7 +694,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -891,13 +940,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1403,6 +1463,58 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2853,6 +2965,730 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98BBA0ED-A2B5-4FB8-80F2-7DD4B0EDAE27}">
+  <dimension ref="A2:L18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="9" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="201" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="198"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="198"/>
+      <c r="G2" s="198"/>
+      <c r="H2" s="198"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="185" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" s="186"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="187"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="188" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="188" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="188" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="188" t="s">
+        <v>148</v>
+      </c>
+      <c r="H4" s="188" t="s">
+        <v>149</v>
+      </c>
+      <c r="I4" s="189" t="s">
+        <v>148</v>
+      </c>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="190" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="93" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="191">
+        <v>0.20449999999999999</v>
+      </c>
+      <c r="E5" s="191">
+        <v>0.105</v>
+      </c>
+      <c r="F5" s="191">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="G5" s="191">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="H5" s="191">
+        <v>8.1500000000000003E-2</v>
+      </c>
+      <c r="I5" s="192">
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="93" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="191">
+        <v>0.1585</v>
+      </c>
+      <c r="E6" s="191">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="F6" s="191">
+        <v>7.8E-2</v>
+      </c>
+      <c r="G6" s="191">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H6" s="191">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="I6" s="192">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="193"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="191"/>
+      <c r="E7" s="191"/>
+      <c r="F7" s="191"/>
+      <c r="G7" s="191"/>
+      <c r="H7" s="191"/>
+      <c r="I7" s="192"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="190" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="93" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="191">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="E8" s="191">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F8" s="191">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="G8" s="191">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H8" s="191">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I8" s="192">
+        <v>1.5E-3</v>
+      </c>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="194"/>
+      <c r="C9" s="195" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="196">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="E9" s="196">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F9" s="196">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G9" s="196">
+        <v>0</v>
+      </c>
+      <c r="H9" s="196">
+        <v>0</v>
+      </c>
+      <c r="I9" s="197">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="182" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="182"/>
+      <c r="D10" s="182"/>
+      <c r="E10" s="182"/>
+      <c r="F10" s="182"/>
+      <c r="G10" s="182"/>
+      <c r="H10" s="182"/>
+      <c r="I10" s="182"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:I10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5020AD-1954-4ED3-85EA-DC4DA14EE02C}">
+  <dimension ref="A2:L19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="9" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="201" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="198"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="198"/>
+      <c r="G2" s="198"/>
+      <c r="H2" s="198"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="185" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" s="186"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="187"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="188" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="188" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="188" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="188" t="s">
+        <v>148</v>
+      </c>
+      <c r="H4" s="188" t="s">
+        <v>149</v>
+      </c>
+      <c r="I4" s="189" t="s">
+        <v>148</v>
+      </c>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="190" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="93" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="191">
+        <f>D16</f>
+        <v>0.4995</v>
+      </c>
+      <c r="E5" s="191">
+        <f t="shared" ref="E5:I6" si="0">E16</f>
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="F5" s="191">
+        <f t="shared" si="0"/>
+        <v>0.42149999999999999</v>
+      </c>
+      <c r="G5" s="191">
+        <f t="shared" si="0"/>
+        <v>0.35049999999999998</v>
+      </c>
+      <c r="H5" s="191">
+        <f t="shared" si="0"/>
+        <v>0.36849999999999999</v>
+      </c>
+      <c r="I5" s="192">
+        <f t="shared" si="0"/>
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="93" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="191">
+        <f>D17</f>
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="E6" s="191">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="F6" s="191">
+        <f t="shared" si="0"/>
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="G6" s="191">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="H6" s="191">
+        <f t="shared" si="0"/>
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="I6" s="192">
+        <f t="shared" si="0"/>
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="193"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="191"/>
+      <c r="E7" s="191"/>
+      <c r="F7" s="191"/>
+      <c r="G7" s="191"/>
+      <c r="H7" s="191"/>
+      <c r="I7" s="192"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="190" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="93" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="191">
+        <f>D18</f>
+        <v>0.50349999999999995</v>
+      </c>
+      <c r="E8" s="191">
+        <f t="shared" ref="E8:I9" si="1">E18</f>
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="F8" s="191">
+        <f t="shared" si="1"/>
+        <v>0.435</v>
+      </c>
+      <c r="G8" s="191">
+        <f t="shared" si="1"/>
+        <v>0.38350000000000001</v>
+      </c>
+      <c r="H8" s="191">
+        <f t="shared" si="1"/>
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="I8" s="192">
+        <f t="shared" si="1"/>
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="194"/>
+      <c r="C9" s="195" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="196">
+        <f>D19</f>
+        <v>7.5499999999999998E-2</v>
+      </c>
+      <c r="E9" s="196">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="F9" s="196">
+        <f t="shared" si="1"/>
+        <v>2.3E-2</v>
+      </c>
+      <c r="G9" s="196">
+        <f t="shared" si="1"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H9" s="196">
+        <f t="shared" si="1"/>
+        <v>1.15E-2</v>
+      </c>
+      <c r="I9" s="197">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="182" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="182"/>
+      <c r="D10" s="182"/>
+      <c r="E10" s="182"/>
+      <c r="F10" s="182"/>
+      <c r="G10" s="182"/>
+      <c r="H10" s="182"/>
+      <c r="I10" s="182"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="D16">
+        <v>0.4995</v>
+      </c>
+      <c r="E16">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="F16">
+        <v>0.42149999999999999</v>
+      </c>
+      <c r="G16">
+        <v>0.35049999999999998</v>
+      </c>
+      <c r="H16">
+        <v>0.36849999999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.33400000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="D17">
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="E17">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="F17">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="G17">
+        <v>0.01</v>
+      </c>
+      <c r="H17">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="I17">
+        <v>5.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="D18">
+        <v>0.50349999999999995</v>
+      </c>
+      <c r="E18">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="F18">
+        <v>0.435</v>
+      </c>
+      <c r="G18">
+        <v>0.38350000000000001</v>
+      </c>
+      <c r="H18">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>7.5499999999999998E-2</v>
+      </c>
+      <c r="E19">
+        <v>0.02</v>
+      </c>
+      <c r="F19">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G19">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H19">
+        <v>1.15E-2</v>
+      </c>
+      <c r="I19">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B8:B9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F063980-1656-4AE6-ACDB-03C79D967769}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="5" width="29.7109375" style="200" customWidth="1"/>
+    <col min="6" max="9" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="D6" s="200" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" s="200" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="190" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="93" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="190"/>
+      <c r="C8" s="93" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="190" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="93" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="190"/>
+      <c r="C10" s="93" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="182" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="182"/>
+      <c r="E11" s="182"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="182"/>
+      <c r="H11" s="182"/>
+      <c r="I11" s="182"/>
+      <c r="J11" s="182"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A2CBE0-AF60-4563-9A47-BEE291487850}">
   <dimension ref="A1:N58"/>
   <sheetViews>
@@ -3888,7 +4724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I29"/>
   <sheetViews>
@@ -4386,7 +5222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F644A70-15E8-470C-9476-7BBEB7370E96}">
   <dimension ref="A1:N58"/>
   <sheetViews>
@@ -5425,7 +6261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4AF087E-D102-4B84-94C4-5B74DC1F0791}">
   <dimension ref="A1:I33"/>
   <sheetViews>
@@ -6010,7 +6846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67960ACA-D433-4506-97D2-88BB510C36DA}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6024,7 +6860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C89BA0-416B-417C-AA31-30FDBB55A55B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
@@ -11136,8 +11972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49E93F8-6F77-4D9D-A37F-18E004A609A0}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11353,7 +12189,9 @@
       <c r="F12" s="126">
         <v>0</v>
       </c>
-      <c r="G12" s="126"/>
+      <c r="G12" s="126">
+        <v>0</v>
+      </c>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
